--- a/capiq_data/in_process_data/IQ31153.xlsx
+++ b/capiq_data/in_process_data/IQ31153.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E147C411-6F0F-455B-80B4-948114537EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE9F99-F092-4ADF-AE3E-33B2FB0FCC64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"a418b6fa-2872-4d1c-83a8-7531066082e0"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"bf5b2247-fb7a-4c8b-94de-bb3ced3a6455"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>14.803000000000001</v>
+        <v>20.524000000000001</v>
       </c>
       <c r="D2">
-        <v>293.66300000000001</v>
+        <v>314.08999999999997</v>
       </c>
       <c r="E2">
-        <v>181.279</v>
+        <v>176.18700000000001</v>
       </c>
       <c r="F2">
-        <v>-59.997</v>
+        <v>66.954999999999998</v>
       </c>
       <c r="G2">
-        <v>696.21100000000001</v>
+        <v>425.00099999999998</v>
       </c>
       <c r="H2">
-        <v>3074.7429999999999</v>
+        <v>1841.4390000000001</v>
       </c>
       <c r="I2">
-        <v>60.332999999999998</v>
+        <v>59.029000000000003</v>
       </c>
       <c r="J2">
-        <v>782.04499999999996</v>
+        <v>601.58000000000004</v>
       </c>
       <c r="K2">
-        <v>2.1230000000000002</v>
+        <v>4.7779999999999996</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>385.49299999999999</v>
+        <v>189.113</v>
       </c>
       <c r="O2">
-        <v>1606.4839999999999</v>
+        <v>978.15300000000002</v>
       </c>
       <c r="P2">
-        <v>1032.8820000000001</v>
+        <v>651.51300000000003</v>
       </c>
       <c r="Q2">
-        <v>9.8239999999999998</v>
+        <v>-10.132999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4471</v>
+        <v>6000</v>
       </c>
       <c r="T2">
-        <v>1468.259</v>
+        <v>863.28599999999994</v>
       </c>
       <c r="U2">
-        <v>70.322999999999993</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>67.197000000000003</v>
+        <v>57.465000000000003</v>
       </c>
       <c r="W2">
-        <v>-18.393000000000001</v>
+        <v>-6.548</v>
       </c>
       <c r="X2">
-        <v>-16.797999999999998</v>
+        <v>-13.42</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>14.965</v>
+        <v>20.524000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-17.414000000000001</v>
+        <v>-4.6520000000000001</v>
       </c>
       <c r="D3">
-        <v>290.63600000000002</v>
+        <v>263.65800000000002</v>
       </c>
       <c r="E3">
-        <v>203.24199999999999</v>
+        <v>185.81</v>
       </c>
       <c r="F3">
-        <v>22.655000000000001</v>
+        <v>27.164000000000001</v>
       </c>
       <c r="G3">
-        <v>840.36099999999999</v>
+        <v>687.36199999999997</v>
       </c>
       <c r="H3">
-        <v>3208.6060000000002</v>
+        <v>2157.1190000000001</v>
       </c>
       <c r="I3">
-        <v>74.914000000000001</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1161.518</v>
+        <v>852.04100000000005</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-2.1230000000000002</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-162.20699999999999</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>158.762</v>
+        <v>245.345</v>
       </c>
       <c r="O3">
-        <v>1773.86</v>
+        <v>1282.347</v>
       </c>
       <c r="P3">
-        <v>1168.6189999999999</v>
+        <v>964.125</v>
       </c>
       <c r="Q3">
-        <v>106.506</v>
+        <v>239.31200000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1434.7460000000001</v>
+        <v>874.77200000000005</v>
       </c>
       <c r="U3">
-        <v>176.82900000000001</v>
+        <v>234.53399999999999</v>
       </c>
       <c r="V3">
-        <v>21.326000000000001</v>
+        <v>-3.4060000000000001</v>
       </c>
       <c r="W3">
-        <v>-18.399999999999999</v>
+        <v>-6.6219999999999999</v>
       </c>
       <c r="X3">
-        <v>113.721</v>
+        <v>308.90300000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-17.414000000000001</v>
+        <v>-4.6520000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>35.798999999999999</v>
+        <v>39.002000000000002</v>
       </c>
       <c r="D4">
-        <v>409.565</v>
+        <v>420.21800000000002</v>
       </c>
       <c r="E4">
-        <v>269.39</v>
+        <v>274.55900000000003</v>
       </c>
       <c r="F4">
-        <v>97.543000000000006</v>
+        <v>93.460999999999999</v>
       </c>
       <c r="G4">
-        <v>745.56799999999998</v>
+        <v>541.25099999999998</v>
       </c>
       <c r="H4">
-        <v>3148.9189999999999</v>
+        <v>2234.5839999999998</v>
       </c>
       <c r="I4">
-        <v>85.415000000000006</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>978.95600000000002</v>
+        <v>854.71100000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>262.89800000000002</v>
+        <v>235.16399999999999</v>
       </c>
       <c r="O4">
-        <v>1698.32</v>
+        <v>1290.5029999999999</v>
       </c>
       <c r="P4">
-        <v>1085.915</v>
+        <v>854.71100000000001</v>
       </c>
       <c r="Q4">
-        <v>-150.72999999999999</v>
+        <v>-235.39699999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1450.5989999999999</v>
+        <v>944.08100000000002</v>
       </c>
       <c r="U4">
-        <v>26.099</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>35.35</v>
+        <v>47.67</v>
       </c>
       <c r="W4">
-        <v>-18.413</v>
+        <v>-6.7309999999999999</v>
       </c>
       <c r="X4">
-        <v>-111.196</v>
+        <v>-76.090999999999994</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>35.798999999999999</v>
+        <v>39.002000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>49.155999999999999</v>
+        <v>45.917000000000002</v>
       </c>
       <c r="D5">
-        <v>445.00299999999999</v>
+        <v>437.01400000000001</v>
       </c>
       <c r="E5">
-        <v>259.77300000000002</v>
+        <v>277.46899999999999</v>
       </c>
       <c r="F5">
-        <v>111.893</v>
+        <v>105.88200000000001</v>
       </c>
       <c r="G5">
-        <v>767.41600000000005</v>
+        <v>539.22199999999998</v>
       </c>
       <c r="H5">
-        <v>3158.558</v>
+        <v>2258.41</v>
       </c>
       <c r="I5">
-        <v>86.322000000000003</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1038.335</v>
+        <v>834.63800000000003</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>197.74600000000001</v>
+        <v>213.57599999999999</v>
       </c>
       <c r="O5">
-        <v>1673.0070000000001</v>
+        <v>1259.336</v>
       </c>
       <c r="P5">
-        <v>1045.4849999999999</v>
+        <v>837.27700000000004</v>
       </c>
       <c r="Q5">
-        <v>30.741</v>
+        <v>-2.8090000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1485.5509999999999</v>
+        <v>999.07399999999996</v>
       </c>
       <c r="U5">
-        <v>56.84</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>123.194</v>
+        <v>114.79600000000001</v>
       </c>
       <c r="W5">
-        <v>-18.419</v>
+        <v>-6.7789999999999999</v>
       </c>
       <c r="X5">
-        <v>-58.607999999999997</v>
+        <v>-67.793000000000006</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>49.155999999999999</v>
+        <v>45.917000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>14.837999999999999</v>
+        <v>25.094999999999999</v>
       </c>
       <c r="D6">
-        <v>374.67899999999997</v>
+        <v>384.80099999999999</v>
       </c>
       <c r="E6">
-        <v>192.316</v>
+        <v>208.47900000000001</v>
       </c>
       <c r="F6">
-        <v>69.88</v>
+        <v>77.242999999999995</v>
       </c>
       <c r="G6">
-        <v>657.85</v>
+        <v>496.23200000000003</v>
       </c>
       <c r="H6">
-        <v>3147.8220000000001</v>
+        <v>2224.58</v>
       </c>
       <c r="I6">
-        <v>92.21</v>
+        <v>79.572000000000003</v>
       </c>
       <c r="J6">
-        <v>1052.902</v>
+        <v>797.38499999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>173.71199999999999</v>
+        <v>192.03700000000001</v>
       </c>
       <c r="O6">
-        <v>1698.9580000000001</v>
+        <v>1202.3679999999999</v>
       </c>
       <c r="P6">
-        <v>1060.0840000000001</v>
+        <v>801.875</v>
       </c>
       <c r="Q6">
-        <v>-30.818000000000001</v>
+        <v>5.0510000000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>4993</v>
+        <v>6900</v>
       </c>
       <c r="T6">
-        <v>1448.864</v>
+        <v>1022.212</v>
       </c>
       <c r="U6">
-        <v>26.021999999999998</v>
+        <v>1.379</v>
       </c>
       <c r="V6">
-        <v>79.224000000000004</v>
+        <v>93.882999999999996</v>
       </c>
       <c r="W6">
-        <v>-18.416</v>
+        <v>-6.7949999999999999</v>
       </c>
       <c r="X6">
-        <v>-8.3879999999999999</v>
+        <v>-41.62</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>14.837999999999999</v>
+        <v>25.094999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-36.731999999999999</v>
+        <v>-22.059000000000001</v>
       </c>
       <c r="D7">
-        <v>350.53199999999998</v>
+        <v>282.27800000000002</v>
       </c>
       <c r="E7">
-        <v>212.05199999999999</v>
+        <v>200.59200000000001</v>
       </c>
       <c r="F7">
-        <v>23.826000000000001</v>
+        <v>28.001000000000001</v>
       </c>
       <c r="G7">
-        <v>701.94399999999996</v>
+        <v>515.31200000000001</v>
       </c>
       <c r="H7">
-        <v>3182.1170000000002</v>
+        <v>2236.3429999999998</v>
       </c>
       <c r="I7">
-        <v>100.08199999999999</v>
+        <v>74.53</v>
       </c>
       <c r="J7">
-        <v>1127.1780000000001</v>
+        <v>821.08799999999997</v>
       </c>
       <c r="K7">
-        <v>1.929</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-76.48</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>185.37100000000001</v>
+        <v>189.71700000000001</v>
       </c>
       <c r="O7">
-        <v>1783.835</v>
+        <v>1232.671</v>
       </c>
       <c r="P7">
-        <v>1136.7570000000001</v>
+        <v>827.20699999999999</v>
       </c>
       <c r="Q7">
-        <v>18.928000000000001</v>
+        <v>9.7579999999999991</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1398.2819999999999</v>
+        <v>1003.672</v>
       </c>
       <c r="U7">
-        <v>44.95</v>
+        <v>11.137</v>
       </c>
       <c r="V7">
-        <v>-4.319</v>
+        <v>19.41</v>
       </c>
       <c r="W7">
-        <v>-18.420000000000002</v>
+        <v>-6.798</v>
       </c>
       <c r="X7">
-        <v>58.634999999999998</v>
+        <v>18.651</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-36.731999999999999</v>
+        <v>-22.059000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>36.75</v>
+        <v>53.362000000000002</v>
       </c>
       <c r="D8">
-        <v>488.90499999999997</v>
+        <v>400.18299999999999</v>
       </c>
       <c r="E8">
-        <v>275.416</v>
+        <v>281.77800000000002</v>
       </c>
       <c r="F8">
-        <v>102.56399999999999</v>
+        <v>107.952</v>
       </c>
       <c r="G8">
-        <v>760.33100000000002</v>
+        <v>573.71500000000003</v>
       </c>
       <c r="H8">
-        <v>3226.5329999999999</v>
+        <v>2301.5410000000002</v>
       </c>
       <c r="I8">
-        <v>113.30800000000001</v>
+        <v>80.287999999999997</v>
       </c>
       <c r="J8">
-        <v>1137.076</v>
+        <v>801.351</v>
       </c>
       <c r="K8">
-        <v>3.3519999999999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>199.066</v>
+        <v>210.536</v>
       </c>
       <c r="O8">
-        <v>1809.729</v>
+        <v>1241.3810000000001</v>
       </c>
       <c r="P8">
-        <v>1147.5989999999999</v>
+        <v>809.96900000000005</v>
       </c>
       <c r="Q8">
-        <v>-3.5569999999999999</v>
+        <v>-6.3810000000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1416.8040000000001</v>
+        <v>1060.1600000000001</v>
       </c>
       <c r="U8">
-        <v>41.393000000000001</v>
+        <v>4.7560000000000002</v>
       </c>
       <c r="V8">
-        <v>31.988</v>
+        <v>28.245000000000001</v>
       </c>
       <c r="W8">
-        <v>-18.440999999999999</v>
+        <v>-6.8339999999999996</v>
       </c>
       <c r="X8">
-        <v>-8.5419999999999998</v>
+        <v>-27.861999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>36.75</v>
+        <v>53.362000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>62.921999999999997</v>
+        <v>38.924999999999997</v>
       </c>
       <c r="D9">
-        <v>537.50699999999995</v>
+        <v>417.77499999999998</v>
       </c>
       <c r="E9">
-        <v>296.947</v>
+        <v>281.04399999999998</v>
       </c>
       <c r="F9">
-        <v>124.02200000000001</v>
+        <v>97.322999999999993</v>
       </c>
       <c r="G9">
-        <v>785.10699999999997</v>
+        <v>577.79999999999995</v>
       </c>
       <c r="H9">
-        <v>3243.2040000000002</v>
+        <v>2321.9940000000001</v>
       </c>
       <c r="I9">
-        <v>99.628</v>
+        <v>81.653000000000006</v>
       </c>
       <c r="J9">
-        <v>1092.117</v>
+        <v>773.48</v>
       </c>
       <c r="K9">
-        <v>0.10199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>217.10900000000001</v>
+        <v>223.73699999999999</v>
       </c>
       <c r="O9">
-        <v>1773.183</v>
+        <v>1230.222</v>
       </c>
       <c r="P9">
-        <v>1098.8900000000001</v>
+        <v>783.17899999999997</v>
       </c>
       <c r="Q9">
-        <v>-5.9720000000000004</v>
+        <v>1.321</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1470.021</v>
+        <v>1091.7719999999999</v>
       </c>
       <c r="U9">
-        <v>35.420999999999999</v>
+        <v>6.077</v>
       </c>
       <c r="V9">
-        <v>94.375</v>
+        <v>84.673000000000002</v>
       </c>
       <c r="W9">
-        <v>-18.440999999999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-64.536000000000001</v>
+        <v>-47.256</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>62.921999999999997</v>
+        <v>38.924999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>21.533999999999999</v>
+        <v>16.077000000000002</v>
       </c>
       <c r="D10">
-        <v>456.01299999999998</v>
+        <v>329.09100000000001</v>
       </c>
       <c r="E10">
-        <v>220.50800000000001</v>
+        <v>221.816</v>
       </c>
       <c r="F10">
-        <v>76.721999999999994</v>
+        <v>56.363999999999997</v>
       </c>
       <c r="G10">
-        <v>700.40099999999995</v>
+        <v>540.64700000000005</v>
       </c>
       <c r="H10">
-        <v>3160.9259999999999</v>
+        <v>2273.0279999999998</v>
       </c>
       <c r="I10">
-        <v>83.537000000000006</v>
+        <v>73.186000000000007</v>
       </c>
       <c r="J10">
-        <v>1042.183</v>
+        <v>733.471</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.802</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>173.33500000000001</v>
+        <v>212.32499999999999</v>
       </c>
       <c r="O10">
-        <v>1710.627</v>
+        <v>1190.018</v>
       </c>
       <c r="P10">
-        <v>1047.8589999999999</v>
+        <v>759.66200000000003</v>
       </c>
       <c r="Q10">
-        <v>-10.026999999999999</v>
+        <v>-13.797000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>4948</v>
+        <v>6400</v>
       </c>
       <c r="T10">
-        <v>1450.299</v>
+        <v>1083.01</v>
       </c>
       <c r="U10">
-        <v>25.393999999999998</v>
+        <v>14.497999999999999</v>
       </c>
       <c r="V10">
-        <v>100.645</v>
+        <v>71.231999999999999</v>
       </c>
       <c r="W10">
-        <v>-18.465</v>
+        <v>-7.3230000000000004</v>
       </c>
       <c r="X10">
-        <v>-65.664000000000001</v>
+        <v>-53.273000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>21.533999999999999</v>
+        <v>16.077000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-27.838999999999999</v>
+        <v>-20.891999999999999</v>
       </c>
       <c r="D11">
-        <v>344.05900000000003</v>
+        <v>273.80200000000002</v>
       </c>
       <c r="E11">
-        <v>202.15</v>
+        <v>222.286</v>
       </c>
       <c r="F11">
-        <v>12.821</v>
+        <v>21.042000000000002</v>
       </c>
       <c r="G11">
-        <v>715.73299999999995</v>
+        <v>533.26</v>
       </c>
       <c r="H11">
-        <v>3154.7750000000001</v>
+        <v>2268.875</v>
       </c>
       <c r="I11">
-        <v>77.08</v>
+        <v>63.901000000000003</v>
       </c>
       <c r="J11">
-        <v>1072.8499999999999</v>
+        <v>758.93799999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-2.4780000000000002</v>
       </c>
       <c r="M11">
-        <v>-29.4</v>
+        <v>-1.837</v>
       </c>
       <c r="N11">
-        <v>168.69</v>
+        <v>203.72399999999999</v>
       </c>
       <c r="O11">
-        <v>1744.7180000000001</v>
+        <v>1222.7049999999999</v>
       </c>
       <c r="P11">
-        <v>1078.527</v>
+        <v>767.89800000000002</v>
       </c>
       <c r="Q11">
-        <v>11.866</v>
+        <v>2.052</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1410.057</v>
+        <v>1046.17</v>
       </c>
       <c r="U11">
-        <v>37.26</v>
+        <v>4.226</v>
       </c>
       <c r="V11">
-        <v>18.574999999999999</v>
+        <v>19.609000000000002</v>
       </c>
       <c r="W11">
-        <v>-18.503</v>
+        <v>-7.327</v>
       </c>
       <c r="X11">
-        <v>16.22</v>
+        <v>13.199</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>-27.838999999999999</v>
+        <v>-20.891999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>41.307000000000002</v>
+        <v>39.65</v>
       </c>
       <c r="D12">
-        <v>507.33199999999999</v>
+        <v>401.76499999999999</v>
       </c>
       <c r="E12">
-        <v>287.52100000000002</v>
+        <v>296.52499999999998</v>
       </c>
       <c r="F12">
-        <v>106.996</v>
+        <v>99.06</v>
       </c>
       <c r="G12">
-        <v>806.48500000000001</v>
+        <v>586.76400000000001</v>
       </c>
       <c r="H12">
-        <v>3231.1190000000001</v>
+        <v>2306.973</v>
       </c>
       <c r="I12">
-        <v>99.96</v>
+        <v>74.893000000000001</v>
       </c>
       <c r="J12">
-        <v>1087.1500000000001</v>
+        <v>746.70100000000002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>192.53299999999999</v>
+        <v>207.465</v>
       </c>
       <c r="O12">
-        <v>1790.452</v>
+        <v>1220.95</v>
       </c>
       <c r="P12">
-        <v>1093.319</v>
+        <v>756.14</v>
       </c>
       <c r="Q12">
-        <v>6.452</v>
+        <v>0.627</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1440.6669999999999</v>
+        <v>1086.0229999999999</v>
       </c>
       <c r="U12">
-        <v>43.712000000000003</v>
+        <v>6.907</v>
       </c>
       <c r="V12">
-        <v>29.896999999999998</v>
+        <v>41.406999999999996</v>
       </c>
       <c r="W12">
-        <v>-18.565000000000001</v>
+        <v>-8.7940000000000005</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>-12.465999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>41.308</v>
+        <v>39.65</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>71.835999999999999</v>
+        <v>45.52</v>
       </c>
       <c r="D13">
-        <v>600.45699999999999</v>
+        <v>442.77</v>
       </c>
       <c r="E13">
-        <v>331.03</v>
+        <v>312.84300000000002</v>
       </c>
       <c r="F13">
-        <v>143.108</v>
+        <v>102.506</v>
       </c>
       <c r="G13">
-        <v>845.66899999999998</v>
+        <v>612.37199999999996</v>
       </c>
       <c r="H13">
-        <v>3337.105</v>
+        <v>2331.1819999999998</v>
       </c>
       <c r="I13">
-        <v>111.26600000000001</v>
+        <v>82.701999999999998</v>
       </c>
       <c r="J13">
-        <v>1107.192</v>
+        <v>719.75900000000001</v>
       </c>
       <c r="K13">
-        <v>10.436999999999999</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>226.43199999999999</v>
+        <v>206.98699999999999</v>
       </c>
       <c r="O13">
-        <v>1838.222</v>
+        <v>1208.2280000000001</v>
       </c>
       <c r="P13">
-        <v>1123.798</v>
+        <v>721.00800000000004</v>
       </c>
       <c r="Q13">
-        <v>13.529</v>
+        <v>47.311</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1498.883</v>
+        <v>1122.954</v>
       </c>
       <c r="U13">
-        <v>57.241</v>
+        <v>53.573999999999998</v>
       </c>
       <c r="V13">
-        <v>117.173</v>
+        <v>110.39100000000001</v>
       </c>
       <c r="W13">
-        <v>-18.558</v>
+        <v>-8.7949999999999999</v>
       </c>
       <c r="X13">
-        <v>11.95</v>
+        <v>-46.113</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>71.835999999999999</v>
+        <v>45.52</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>36.033000000000001</v>
+        <v>29.344999999999999</v>
       </c>
       <c r="D14">
-        <v>491.37</v>
+        <v>357.80900000000003</v>
       </c>
       <c r="E14">
-        <v>242.447</v>
+        <v>226.24700000000001</v>
       </c>
       <c r="F14">
-        <v>101.032</v>
+        <v>86.921000000000006</v>
       </c>
       <c r="G14">
-        <v>755.36599999999999</v>
+        <v>610.65099999999995</v>
       </c>
       <c r="H14">
-        <v>3259.826</v>
+        <v>2319.2249999999999</v>
       </c>
       <c r="I14">
-        <v>103.6</v>
+        <v>76.575999999999993</v>
       </c>
       <c r="J14">
-        <v>1018.518</v>
+        <v>717.07299999999998</v>
       </c>
       <c r="K14">
-        <v>2.556</v>
+        <v>11.263999999999999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>210.54900000000001</v>
+        <v>222.751</v>
       </c>
       <c r="O14">
-        <v>1684.9069999999999</v>
+        <v>1189.3779999999999</v>
       </c>
       <c r="P14">
-        <v>1033.4770000000001</v>
+        <v>729.40499999999997</v>
       </c>
       <c r="Q14">
-        <v>-14.804</v>
+        <v>60.645000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5036</v>
+        <v>5900</v>
       </c>
       <c r="T14">
-        <v>1574.9190000000001</v>
+        <v>1129.847</v>
       </c>
       <c r="U14">
-        <v>42.436999999999998</v>
+        <v>125.133</v>
       </c>
       <c r="V14">
-        <v>143.30600000000001</v>
+        <v>105.762</v>
       </c>
       <c r="W14">
-        <v>-18.571000000000002</v>
+        <v>-8.798</v>
       </c>
       <c r="X14">
-        <v>-110.529</v>
+        <v>-21.376000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>36.033000000000001</v>
+        <v>29.344999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-21.617999999999999</v>
+        <v>-6.5449999999999999</v>
       </c>
       <c r="D15">
-        <v>379.678</v>
+        <v>297.80200000000002</v>
       </c>
       <c r="E15">
-        <v>242.58699999999999</v>
+        <v>226.059</v>
       </c>
       <c r="F15">
-        <v>25.835000000000001</v>
+        <v>35.869</v>
       </c>
       <c r="G15">
-        <v>758.21400000000006</v>
+        <v>563.07000000000005</v>
       </c>
       <c r="H15">
-        <v>3255.2570000000001</v>
+        <v>2265.7179999999998</v>
       </c>
       <c r="I15">
-        <v>98.775000000000006</v>
+        <v>71.411000000000001</v>
       </c>
       <c r="J15">
-        <v>1055.5409999999999</v>
+        <v>718.57799999999997</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.048</v>
       </c>
       <c r="L15">
-        <v>-2.556</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-23.65</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="N15">
-        <v>193.75800000000001</v>
+        <v>221.47200000000001</v>
       </c>
       <c r="O15">
-        <v>1710.9639999999999</v>
+        <v>1174.973</v>
       </c>
       <c r="P15">
-        <v>1067.944</v>
+        <v>731.61400000000003</v>
       </c>
       <c r="Q15">
-        <v>-6.6360000000000001</v>
+        <v>-72.352999999999994</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1544.2929999999999</v>
+        <v>1090.7449999999999</v>
       </c>
       <c r="U15">
-        <v>35.801000000000002</v>
+        <v>52.78</v>
       </c>
       <c r="V15">
-        <v>6.6120000000000001</v>
+        <v>-16.585000000000001</v>
       </c>
       <c r="W15">
-        <v>-18.603999999999999</v>
+        <v>-8.6679999999999993</v>
       </c>
       <c r="X15">
-        <v>22.314</v>
+        <v>-32.347999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>-21.617999999999999</v>
+        <v>-6.5449999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>59.521999999999998</v>
+        <v>44.715000000000003</v>
       </c>
       <c r="D16">
-        <v>601.93700000000001</v>
+        <v>407.19400000000002</v>
       </c>
       <c r="E16">
-        <v>343.78399999999999</v>
+        <v>259.88900000000001</v>
       </c>
       <c r="F16">
-        <v>135.602</v>
+        <v>105.95699999999999</v>
       </c>
       <c r="G16">
-        <v>876.70100000000002</v>
+        <v>616.875</v>
       </c>
       <c r="H16">
-        <v>3356.0430000000001</v>
+        <v>2312.96</v>
       </c>
       <c r="I16">
-        <v>139.44200000000001</v>
+        <v>77.481999999999999</v>
       </c>
       <c r="J16">
-        <v>1072.3969999999999</v>
+        <v>713.23800000000006</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.010999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>244.72499999999999</v>
+        <v>199.03399999999999</v>
       </c>
       <c r="O16">
-        <v>1789.0440000000001</v>
+        <v>1184.8720000000001</v>
       </c>
       <c r="P16">
-        <v>1084.8009999999999</v>
+        <v>725.20500000000004</v>
       </c>
       <c r="Q16">
-        <v>-1.472</v>
+        <v>33.021999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1566.999</v>
+        <v>1128.088</v>
       </c>
       <c r="U16">
-        <v>34.329000000000001</v>
+        <v>85.802000000000007</v>
       </c>
       <c r="V16">
-        <v>63.750999999999998</v>
+        <v>68.480999999999995</v>
       </c>
       <c r="W16">
-        <v>-18.649999999999999</v>
+        <v>-8.6669999999999998</v>
       </c>
       <c r="X16">
-        <v>-18.614000000000001</v>
+        <v>-9.0809999999999995</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>59.521000000000001</v>
+        <v>44.715000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>53.741999999999997</v>
+        <v>54.003</v>
       </c>
       <c r="D17">
-        <v>917.94200000000001</v>
+        <v>437.88200000000001</v>
       </c>
       <c r="E17">
-        <v>523.928</v>
+        <v>286.024</v>
       </c>
       <c r="F17">
-        <v>206.46600000000001</v>
+        <v>111.405</v>
       </c>
       <c r="G17">
-        <v>1212.798</v>
+        <v>679.98</v>
       </c>
       <c r="H17">
-        <v>7338.8580000000002</v>
+        <v>2388.2170000000001</v>
       </c>
       <c r="I17">
-        <v>230.20599999999999</v>
+        <v>89.94</v>
       </c>
       <c r="J17">
-        <v>1603.944</v>
+        <v>714.95500000000004</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>436.99799999999999</v>
+        <v>220.749</v>
       </c>
       <c r="O17">
-        <v>2963.2449999999999</v>
+        <v>1220.691</v>
       </c>
       <c r="P17">
-        <v>1618.2750000000001</v>
+        <v>721.66800000000001</v>
       </c>
       <c r="Q17">
-        <v>39.268000000000001</v>
+        <v>49.674999999999997</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4375.6130000000003</v>
+        <v>1167.5260000000001</v>
       </c>
       <c r="U17">
-        <v>73.596999999999994</v>
+        <v>135.477</v>
       </c>
       <c r="V17">
-        <v>131.26499999999999</v>
+        <v>97.316999999999993</v>
       </c>
       <c r="W17">
-        <v>-27.009</v>
+        <v>-9.6359999999999992</v>
       </c>
       <c r="X17">
-        <v>-209.31899999999999</v>
+        <v>-20.117000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>53.743000000000002</v>
+        <v>54.003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>63.954999999999998</v>
+        <v>36.99</v>
       </c>
       <c r="D18">
-        <v>779.53800000000001</v>
+        <v>378.52499999999998</v>
       </c>
       <c r="E18">
-        <v>413.93900000000002</v>
+        <v>215.44900000000001</v>
       </c>
       <c r="F18">
-        <v>166.55699999999999</v>
+        <v>93.412999999999997</v>
       </c>
       <c r="G18">
-        <v>1044.1780000000001</v>
+        <v>624.25300000000004</v>
       </c>
       <c r="H18">
-        <v>7219.7539999999999</v>
+        <v>2355.8519999999999</v>
       </c>
       <c r="I18">
-        <v>202.476</v>
+        <v>89.948999999999998</v>
       </c>
       <c r="J18">
-        <v>1571.059</v>
+        <v>713.66099999999994</v>
       </c>
       <c r="K18">
-        <v>0.183</v>
+        <v>9.5269999999999992</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>396.64800000000002</v>
+        <v>203.81299999999999</v>
       </c>
       <c r="O18">
-        <v>2867.0059999999999</v>
+        <v>1202.425</v>
       </c>
       <c r="P18">
-        <v>1585.578</v>
+        <v>724.15800000000002</v>
       </c>
       <c r="Q18">
-        <v>35.054000000000002</v>
+        <v>26.143000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>7193</v>
+        <v>5778</v>
       </c>
       <c r="T18">
-        <v>4352.7479999999996</v>
+        <v>1153.4269999999999</v>
       </c>
       <c r="U18">
-        <v>108.651</v>
+        <v>161.62</v>
       </c>
       <c r="V18">
-        <v>180.03</v>
+        <v>117.628</v>
       </c>
       <c r="W18">
-        <v>-27.041</v>
+        <v>-9.5359999999999996</v>
       </c>
       <c r="X18">
-        <v>-60.5</v>
+        <v>-45.482999999999997</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>63.954999999999998</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>6.1260000000000003</v>
+        <v>7.077</v>
       </c>
       <c r="D19">
-        <v>631.87599999999998</v>
+        <v>338.21699999999998</v>
       </c>
       <c r="E19">
-        <v>381.38900000000001</v>
+        <v>220.44200000000001</v>
       </c>
       <c r="F19">
-        <v>74.260999999999996</v>
+        <v>49.668999999999997</v>
       </c>
       <c r="G19">
-        <v>1281.729</v>
+        <v>585.54300000000001</v>
       </c>
       <c r="H19">
-        <v>7417.6459999999997</v>
+        <v>2354.1280000000002</v>
       </c>
       <c r="I19">
-        <v>184.066</v>
+        <v>89.596000000000004</v>
       </c>
       <c r="J19">
-        <v>1566.617</v>
+        <v>710.346</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="L19">
-        <v>-0.183</v>
+        <v>-1.7470000000000001</v>
       </c>
       <c r="M19">
-        <v>-5.5330000000000004</v>
+        <v>-0.40300000000000002</v>
       </c>
       <c r="N19">
-        <v>343.55500000000001</v>
+        <v>198.721</v>
       </c>
       <c r="O19">
-        <v>3075.4630000000002</v>
+        <v>1235.557</v>
       </c>
       <c r="P19">
-        <v>1581.0229999999999</v>
+        <v>719.06899999999996</v>
       </c>
       <c r="Q19">
-        <v>-52.284999999999997</v>
+        <v>-58.523000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4342.183</v>
+        <v>1118.5709999999999</v>
       </c>
       <c r="U19">
-        <v>56.366</v>
+        <v>103.09699999999999</v>
       </c>
       <c r="V19">
-        <v>35.125</v>
+        <v>30.015000000000001</v>
       </c>
       <c r="W19">
-        <v>-28.353999999999999</v>
+        <v>-9.4090000000000007</v>
       </c>
       <c r="X19">
-        <v>-24.018999999999998</v>
+        <v>-49.107999999999997</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>6.1260000000000003</v>
+        <v>7.077</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>81.938999999999993</v>
+        <v>61.472000000000001</v>
       </c>
       <c r="D20">
-        <v>850.24900000000002</v>
+        <v>476.06200000000001</v>
       </c>
       <c r="E20">
-        <v>497.46800000000002</v>
+        <v>282.84399999999999</v>
       </c>
       <c r="F20">
-        <v>200.15299999999999</v>
+        <v>129.61600000000001</v>
       </c>
       <c r="G20">
-        <v>1765.249</v>
+        <v>624.26499999999999</v>
       </c>
       <c r="H20">
-        <v>7499.6540000000005</v>
+        <v>2406.2669999999998</v>
       </c>
       <c r="I20">
-        <v>201.23500000000001</v>
+        <v>103.566</v>
       </c>
       <c r="J20">
-        <v>1642.0350000000001</v>
+        <v>711.49099999999999</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>363.834</v>
+        <v>229.45599999999999</v>
       </c>
       <c r="O20">
-        <v>3189.221</v>
+        <v>1267.787</v>
       </c>
       <c r="P20">
-        <v>1658.001</v>
+        <v>717.60599999999999</v>
       </c>
       <c r="Q20">
-        <v>-12.196999999999999</v>
+        <v>-21.687000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4310.433</v>
+        <v>1138.48</v>
       </c>
       <c r="U20">
-        <v>44.168999999999997</v>
+        <v>81.41</v>
       </c>
       <c r="V20">
-        <v>91.944000000000003</v>
+        <v>78.635000000000005</v>
       </c>
       <c r="W20">
-        <v>-25.931000000000001</v>
+        <v>-9.2880000000000003</v>
       </c>
       <c r="X20">
-        <v>-32.609000000000002</v>
+        <v>-45.252000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AA20">
-        <v>81.938000000000002</v>
+        <v>61.472000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>117.542</v>
+        <v>76.36</v>
       </c>
       <c r="D21">
-        <v>1005.218</v>
+        <v>496.99200000000002</v>
       </c>
       <c r="E21">
-        <v>577.42399999999998</v>
+        <v>288.42200000000003</v>
       </c>
       <c r="F21">
-        <v>262.505</v>
+        <v>134.88900000000001</v>
       </c>
       <c r="G21">
-        <v>1641.971</v>
+        <v>666.173</v>
       </c>
       <c r="H21">
-        <v>7438.4480000000003</v>
+        <v>2475.0830000000001</v>
       </c>
       <c r="I21">
-        <v>226.83699999999999</v>
+        <v>94.754000000000005</v>
       </c>
       <c r="J21">
-        <v>1557.616</v>
+        <v>709.78</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.724</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>575.39200000000005</v>
+        <v>235.31800000000001</v>
       </c>
       <c r="O21">
-        <v>3185.8679999999999</v>
+        <v>1273.5340000000001</v>
       </c>
       <c r="P21">
-        <v>1705.152</v>
+        <v>724.38400000000001</v>
       </c>
       <c r="Q21">
-        <v>392.26</v>
+        <v>30.172999999999998</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4252.58</v>
+        <v>1201.549</v>
       </c>
       <c r="U21">
-        <v>436.42899999999997</v>
+        <v>111.583</v>
       </c>
       <c r="V21">
-        <v>192.51</v>
+        <v>99.378</v>
       </c>
       <c r="W21">
-        <v>-26.934000000000001</v>
+        <v>-10.648</v>
       </c>
       <c r="X21">
-        <v>-135.72399999999999</v>
+        <v>-10.736000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="AA21">
-        <v>117.544</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>83.185000000000002</v>
+        <v>47.756999999999998</v>
       </c>
       <c r="D22">
-        <v>780.774</v>
+        <v>434.4</v>
       </c>
       <c r="E22">
-        <v>401.61099999999999</v>
+        <v>219.494</v>
       </c>
       <c r="F22">
-        <v>184.84899999999999</v>
+        <v>110.218</v>
       </c>
       <c r="G22">
-        <v>1081.635</v>
+        <v>602.04100000000005</v>
       </c>
       <c r="H22">
-        <v>6957.6109999999999</v>
+        <v>2433.3159999999998</v>
       </c>
       <c r="I22">
-        <v>164.71799999999999</v>
+        <v>93.444999999999993</v>
       </c>
       <c r="J22">
-        <v>1550.0609999999999</v>
+        <v>709.15899999999999</v>
       </c>
       <c r="K22">
-        <v>10.234999999999999</v>
+        <v>7.29</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>366.65800000000002</v>
+        <v>200.12200000000001</v>
       </c>
       <c r="O22">
-        <v>2897.4340000000002</v>
+        <v>1259.6310000000001</v>
       </c>
       <c r="P22">
-        <v>1579.009</v>
+        <v>717.31200000000001</v>
       </c>
       <c r="Q22">
-        <v>-268.02</v>
+        <v>-34.838000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>7300</v>
+        <v>5754</v>
       </c>
       <c r="T22">
-        <v>4060.1770000000001</v>
+        <v>1173.6849999999999</v>
       </c>
       <c r="U22">
-        <v>168.40899999999999</v>
+        <v>76.745000000000005</v>
       </c>
       <c r="V22">
-        <v>253.572</v>
+        <v>109.756</v>
       </c>
       <c r="W22">
-        <v>-26.242999999999999</v>
+        <v>-10.608000000000001</v>
       </c>
       <c r="X22">
-        <v>-409.58699999999999</v>
+        <v>-83.694000000000003</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,125 +2591,125 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>83.185000000000002</v>
+        <v>47.756999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>44.994</v>
+        <v>31.006</v>
       </c>
       <c r="D23">
-        <v>733.96</v>
+        <v>423.375</v>
       </c>
       <c r="E23">
-        <v>448.048</v>
+        <v>241.58699999999999</v>
       </c>
       <c r="F23">
-        <v>145.25</v>
+        <v>84.316000000000003</v>
       </c>
       <c r="G23">
-        <v>998.31500000000005</v>
+        <v>584.88099999999997</v>
       </c>
       <c r="H23">
-        <v>7058.2870000000003</v>
+        <v>2434.9589999999998</v>
       </c>
       <c r="I23">
-        <v>174.398</v>
+        <v>93.346999999999994</v>
       </c>
       <c r="J23">
-        <v>1575.327</v>
+        <v>705.86199999999997</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.294</v>
       </c>
       <c r="L23">
-        <v>-10.234999999999999</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-27.17</v>
+        <v>-0.436</v>
       </c>
       <c r="N23">
-        <v>492.13099999999997</v>
+        <v>215.53399999999999</v>
       </c>
       <c r="O23">
-        <v>3112.6509999999998</v>
+        <v>1247.9559999999999</v>
       </c>
       <c r="P23">
-        <v>1752.7570000000001</v>
+        <v>717.78899999999999</v>
       </c>
       <c r="Q23">
-        <v>-141.167</v>
+        <v>-45.591999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3945.636</v>
+        <v>1187.0029999999999</v>
       </c>
       <c r="U23">
-        <v>27.242000000000001</v>
+        <v>31.152999999999999</v>
       </c>
       <c r="V23">
-        <v>68.311999999999998</v>
+        <v>32.500999999999998</v>
       </c>
       <c r="W23">
-        <v>-25.847000000000001</v>
+        <v>-10.619</v>
       </c>
       <c r="X23">
-        <v>0.88800000000000001</v>
+        <v>-26.518000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA23">
-        <v>44.994</v>
+        <v>31.006</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>122.053</v>
+        <v>75.790000000000006</v>
       </c>
       <c r="D24">
-        <v>915.43600000000004</v>
+        <v>516.75900000000001</v>
       </c>
       <c r="E24">
-        <v>534.45899999999995</v>
+        <v>292.55900000000003</v>
       </c>
       <c r="F24">
-        <v>247.43100000000001</v>
+        <v>153.13999999999999</v>
       </c>
       <c r="G24">
-        <v>1121.9290000000001</v>
+        <v>607.76700000000005</v>
       </c>
       <c r="H24">
-        <v>7233.3050000000003</v>
+        <v>2502.0160000000001</v>
       </c>
       <c r="I24">
-        <v>197.733</v>
+        <v>99.525999999999996</v>
       </c>
       <c r="J24">
-        <v>1541.0619999999999</v>
+        <v>705.35900000000004</v>
       </c>
       <c r="K24">
-        <v>7.1429999999999998</v>
+        <v>15.324</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>601.60400000000004</v>
+        <v>250.57599999999999</v>
       </c>
       <c r="O24">
-        <v>3216.8049999999998</v>
+        <v>1282.731</v>
       </c>
       <c r="P24">
-        <v>1786.36</v>
+        <v>734.67200000000003</v>
       </c>
       <c r="Q24">
-        <v>1.3540000000000001</v>
+        <v>-10.766999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4016.5</v>
+        <v>1219.2850000000001</v>
       </c>
       <c r="U24">
-        <v>28.596</v>
+        <v>20.385999999999999</v>
       </c>
       <c r="V24">
-        <v>141.53200000000001</v>
+        <v>81.378</v>
       </c>
       <c r="W24">
-        <v>-25.62</v>
+        <v>-10.632</v>
       </c>
       <c r="X24">
-        <v>-24.905999999999999</v>
+        <v>-30.695</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>122.05200000000001</v>
+        <v>75.790000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>159.47900000000001</v>
+        <v>76.16</v>
       </c>
       <c r="D25">
-        <v>1038.3440000000001</v>
+        <v>527.38099999999997</v>
       </c>
       <c r="E25">
-        <v>566.42499999999995</v>
+        <v>293.702</v>
       </c>
       <c r="F25">
-        <v>293.30700000000002</v>
+        <v>149.28700000000001</v>
       </c>
       <c r="G25">
-        <v>1191.5250000000001</v>
+        <v>608.28899999999999</v>
       </c>
       <c r="H25">
-        <v>7373.201</v>
+        <v>2532.6959999999999</v>
       </c>
       <c r="I25">
-        <v>192.738</v>
+        <v>89.65</v>
       </c>
       <c r="J25">
-        <v>1536.81</v>
+        <v>579.82399999999996</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>604.90899999999999</v>
+        <v>359.69499999999999</v>
       </c>
       <c r="O25">
-        <v>3214.8029999999999</v>
+        <v>1270.626</v>
       </c>
       <c r="P25">
-        <v>1764.835</v>
+        <v>727.15</v>
       </c>
       <c r="Q25">
-        <v>32.088000000000001</v>
+        <v>2.4430000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4158.3980000000001</v>
+        <v>1262.07</v>
       </c>
       <c r="U25">
-        <v>60.683999999999997</v>
+        <v>22.829000000000001</v>
       </c>
       <c r="V25">
-        <v>211.869</v>
+        <v>95.843000000000004</v>
       </c>
       <c r="W25">
-        <v>-26.827999999999999</v>
+        <v>-12.592000000000001</v>
       </c>
       <c r="X25">
-        <v>-50.712000000000003</v>
+        <v>-42.762</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>159.47900000000001</v>
+        <v>76.16</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>98.86</v>
+        <v>62.466000000000001</v>
       </c>
       <c r="D26">
-        <v>889.02700000000004</v>
+        <v>463.017</v>
       </c>
       <c r="E26">
-        <v>450.24200000000002</v>
+        <v>237.59200000000001</v>
       </c>
       <c r="F26">
-        <v>225.75</v>
+        <v>141.43199999999999</v>
       </c>
       <c r="G26">
-        <v>1086.385</v>
+        <v>592.35400000000004</v>
       </c>
       <c r="H26">
-        <v>7300.9049999999997</v>
+        <v>2506.4209999999998</v>
       </c>
       <c r="I26">
-        <v>178.59800000000001</v>
+        <v>85.236999999999995</v>
       </c>
       <c r="J26">
-        <v>1506.153</v>
+        <v>579.30799999999999</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>8.9269999999999996</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>546.58799999999997</v>
+        <v>315.072</v>
       </c>
       <c r="O26">
-        <v>3158.3150000000001</v>
+        <v>1252.4490000000001</v>
       </c>
       <c r="P26">
-        <v>1686.1890000000001</v>
+        <v>713.654</v>
       </c>
       <c r="Q26">
-        <v>-10.646000000000001</v>
+        <v>9.4529999999999994</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>8111</v>
+        <v>5500</v>
       </c>
       <c r="T26">
-        <v>4142.59</v>
+        <v>1253.972</v>
       </c>
       <c r="U26">
-        <v>50.037999999999997</v>
+        <v>32.281999999999996</v>
       </c>
       <c r="V26">
-        <v>267.52</v>
+        <v>128.47</v>
       </c>
       <c r="W26">
-        <v>-26.741</v>
+        <v>-12.577999999999999</v>
       </c>
       <c r="X26">
-        <v>-177.56100000000001</v>
+        <v>-69.257000000000005</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>98.86</v>
+        <v>62.466000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>42.334000000000003</v>
+        <v>32.99</v>
       </c>
       <c r="D27">
-        <v>792.31600000000003</v>
+        <v>410.75200000000001</v>
       </c>
       <c r="E27">
-        <v>479.21499999999997</v>
+        <v>250.511</v>
       </c>
       <c r="F27">
-        <v>147.69900000000001</v>
+        <v>93.936000000000007</v>
       </c>
       <c r="G27">
-        <v>1123.242</v>
+        <v>621.20799999999997</v>
       </c>
       <c r="H27">
-        <v>7393.7910000000002</v>
+        <v>2560.527</v>
       </c>
       <c r="I27">
-        <v>188.399</v>
+        <v>90.933000000000007</v>
       </c>
       <c r="J27">
-        <v>1556.2460000000001</v>
+        <v>578.68299999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>262.80900000000003</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-45.773000000000003</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="N27">
-        <v>631.55799999999999</v>
+        <v>627.67399999999998</v>
       </c>
       <c r="O27">
-        <v>3317.837</v>
+        <v>1559.41</v>
       </c>
       <c r="P27">
-        <v>1846.2940000000001</v>
+        <v>966.64099999999996</v>
       </c>
       <c r="Q27">
-        <v>5.38</v>
+        <v>-14.173999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4075.9540000000002</v>
+        <v>1001.117</v>
       </c>
       <c r="U27">
-        <v>55.417999999999999</v>
+        <v>18.108000000000001</v>
       </c>
       <c r="V27">
-        <v>73.864999999999995</v>
+        <v>49.052</v>
       </c>
       <c r="W27">
-        <v>-26.56</v>
+        <v>-12.477</v>
       </c>
       <c r="X27">
-        <v>32.89</v>
+        <v>-4.3410000000000002</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>42.334000000000003</v>
+        <v>32.99</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>142.279</v>
+        <v>82.951999999999998</v>
       </c>
       <c r="D28">
-        <v>996.84299999999996</v>
+        <v>528.81100000000004</v>
       </c>
       <c r="E28">
-        <v>570.61800000000005</v>
+        <v>296.64400000000001</v>
       </c>
       <c r="F28">
-        <v>278.74799999999999</v>
+        <v>177.84100000000001</v>
       </c>
       <c r="G28">
-        <v>1244.297</v>
+        <v>691.28300000000002</v>
       </c>
       <c r="H28">
-        <v>7515.86</v>
+        <v>2667.7269999999999</v>
       </c>
       <c r="I28">
-        <v>187.227</v>
+        <v>92.350999999999999</v>
       </c>
       <c r="J28">
-        <v>1641.944</v>
+        <v>1051.527</v>
       </c>
       <c r="K28">
-        <v>3.794</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>534.32500000000005</v>
+        <v>353.37099999999998</v>
       </c>
       <c r="O28">
-        <v>3315.3290000000002</v>
+        <v>1763.39</v>
       </c>
       <c r="P28">
-        <v>1785.7750000000001</v>
+        <v>1182.6659999999999</v>
       </c>
       <c r="Q28">
-        <v>-18.696000000000002</v>
+        <v>12.782</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4200.5309999999999</v>
+        <v>904.33699999999999</v>
       </c>
       <c r="U28">
-        <v>36.722000000000001</v>
+        <v>30.89</v>
       </c>
       <c r="V28">
-        <v>155.458</v>
+        <v>90.953999999999994</v>
       </c>
       <c r="W28">
-        <v>-26.574999999999999</v>
+        <v>-11.866</v>
       </c>
       <c r="X28">
-        <v>-89.605000000000004</v>
+        <v>-17.106999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>142.279</v>
+        <v>82.951999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>151.54599999999999</v>
+        <v>90.266000000000005</v>
       </c>
       <c r="D29">
-        <v>1022.487</v>
+        <v>544.38900000000001</v>
       </c>
       <c r="E29">
-        <v>582.53200000000004</v>
+        <v>312.26499999999999</v>
       </c>
       <c r="F29">
-        <v>279.60300000000001</v>
+        <v>167.31399999999999</v>
       </c>
       <c r="G29">
-        <v>1277.989</v>
+        <v>690.86</v>
       </c>
       <c r="H29">
-        <v>7566.7849999999999</v>
+        <v>2721.95</v>
       </c>
       <c r="I29">
-        <v>163.59700000000001</v>
+        <v>92.844999999999999</v>
       </c>
       <c r="J29">
-        <v>1642.502</v>
+        <v>1050.7049999999999</v>
       </c>
       <c r="K29">
-        <v>1.0469999999999999</v>
+        <v>76.12</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>468.50299999999999</v>
+        <v>316.63099999999997</v>
       </c>
       <c r="O29">
-        <v>3232.8029999999999</v>
+        <v>1734.6669999999999</v>
       </c>
       <c r="P29">
-        <v>1723.587</v>
+        <v>1128.894</v>
       </c>
       <c r="Q29">
-        <v>-1.5029999999999999</v>
+        <v>-4.4729999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4333.982</v>
+        <v>987.28300000000002</v>
       </c>
       <c r="U29">
-        <v>35.219000000000001</v>
+        <v>26.417000000000002</v>
       </c>
       <c r="V29">
-        <v>188.79900000000001</v>
+        <v>132.767</v>
       </c>
       <c r="W29">
-        <v>-27.826000000000001</v>
+        <v>-14.629</v>
       </c>
       <c r="X29">
-        <v>-91.671000000000006</v>
+        <v>-65.081999999999994</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>151.54599999999999</v>
+        <v>90.266000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>377.18299999999999</v>
+        <v>56.540999999999997</v>
       </c>
       <c r="D30">
-        <v>911.83199999999999</v>
+        <v>471.92500000000001</v>
       </c>
       <c r="E30">
-        <v>477.68299999999999</v>
+        <v>240.95</v>
       </c>
       <c r="F30">
-        <v>259.61599999999999</v>
+        <v>129.78800000000001</v>
       </c>
       <c r="G30">
-        <v>2631.16</v>
+        <v>626.01</v>
       </c>
       <c r="H30">
-        <v>8992.5110000000004</v>
+        <v>2683.8049999999998</v>
       </c>
       <c r="I30">
-        <v>183.63800000000001</v>
+        <v>86.867999999999995</v>
       </c>
       <c r="J30">
-        <v>2727.2939999999999</v>
+        <v>848.18600000000004</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>78.350999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>694.21600000000001</v>
+        <v>506.61599999999999</v>
       </c>
       <c r="O30">
-        <v>4310.0339999999997</v>
+        <v>1737.8140000000001</v>
       </c>
       <c r="P30">
-        <v>3027.203</v>
+        <v>1130.673</v>
       </c>
       <c r="Q30">
-        <v>1411.145</v>
+        <v>-6.3789999999999996</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>8406</v>
+        <v>5300</v>
       </c>
       <c r="T30">
-        <v>4682.4769999999999</v>
+        <v>945.99099999999999</v>
       </c>
       <c r="U30">
-        <v>1446.364</v>
+        <v>20.038</v>
       </c>
       <c r="V30">
-        <v>239.476</v>
+        <v>122.795</v>
       </c>
       <c r="W30">
-        <v>-27.890999999999998</v>
+        <v>-14.638</v>
       </c>
       <c r="X30">
-        <v>1273.3130000000001</v>
+        <v>-65.254999999999995</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>377.18299999999999</v>
+        <v>56.540999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>10.023</v>
+        <v>20.864000000000001</v>
       </c>
       <c r="D31">
-        <v>753.30499999999995</v>
+        <v>396.29300000000001</v>
       </c>
       <c r="E31">
-        <v>466.46499999999997</v>
+        <v>239.00899999999999</v>
       </c>
       <c r="F31">
-        <v>111.685</v>
+        <v>75.147999999999996</v>
       </c>
       <c r="G31">
-        <v>2601.9299999999998</v>
+        <v>620.88</v>
       </c>
       <c r="H31">
-        <v>8948.0499999999993</v>
+        <v>2760.1080000000002</v>
       </c>
       <c r="I31">
-        <v>162.328</v>
+        <v>92.623000000000005</v>
       </c>
       <c r="J31">
-        <v>2728.1019999999999</v>
+        <v>855.65499999999997</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>137.73500000000001</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.84199999999999997</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="N31">
-        <v>650.97900000000004</v>
+        <v>544.50800000000004</v>
       </c>
       <c r="O31">
-        <v>4268.22</v>
+        <v>1804.921</v>
       </c>
       <c r="P31">
-        <v>3028.1080000000002</v>
+        <v>1200.9949999999999</v>
       </c>
       <c r="Q31">
-        <v>-23.991</v>
+        <v>-6.4610000000000003</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4679.83</v>
+        <v>955.18700000000001</v>
       </c>
       <c r="U31">
-        <v>1422.373</v>
+        <v>13.577</v>
       </c>
       <c r="V31">
-        <v>105.012</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="W31">
-        <v>-27.885000000000002</v>
+        <v>-14.435</v>
       </c>
       <c r="X31">
-        <v>-35.371000000000002</v>
+        <v>20.039000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>10.023</v>
+        <v>20.864000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>185.37700000000001</v>
+        <v>63.805</v>
       </c>
       <c r="D32">
-        <v>1128.777</v>
+        <v>526.41700000000003</v>
       </c>
       <c r="E32">
-        <v>675.57</v>
+        <v>321.98500000000001</v>
       </c>
       <c r="F32">
-        <v>326.51400000000001</v>
+        <v>139.46899999999999</v>
       </c>
       <c r="G32">
-        <v>1457.153</v>
+        <v>690.84699999999998</v>
       </c>
       <c r="H32">
-        <v>9596.7520000000004</v>
+        <v>3071.5819999999999</v>
       </c>
       <c r="I32">
-        <v>188.761</v>
+        <v>101.03700000000001</v>
       </c>
       <c r="J32">
-        <v>2898.8760000000002</v>
+        <v>1153.0319999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>87.168000000000006</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>709.13300000000004</v>
+        <v>492.51799999999997</v>
       </c>
       <c r="O32">
-        <v>4741.2820000000002</v>
+        <v>2054.8049999999998</v>
       </c>
       <c r="P32">
-        <v>3218.922</v>
+        <v>1444.8969999999999</v>
       </c>
       <c r="Q32">
-        <v>-1388.5940000000001</v>
+        <v>-0.42099999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4855.47</v>
+        <v>1016.777</v>
       </c>
       <c r="U32">
-        <v>33.779000000000003</v>
+        <v>13.156000000000001</v>
       </c>
       <c r="V32">
-        <v>133.02099999999999</v>
+        <v>49.826000000000001</v>
       </c>
       <c r="W32">
-        <v>-27.91</v>
+        <v>-14.486000000000001</v>
       </c>
       <c r="X32">
-        <v>160.084</v>
+        <v>218.90700000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>185.37700000000001</v>
+        <v>63.804000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>180.221</v>
+        <v>66.325999999999993</v>
       </c>
       <c r="D33">
-        <v>1142.2180000000001</v>
+        <v>525.66200000000003</v>
       </c>
       <c r="E33">
-        <v>644.83500000000004</v>
+        <v>300.416</v>
       </c>
       <c r="F33">
-        <v>322.45699999999999</v>
+        <v>151.57400000000001</v>
       </c>
       <c r="G33">
-        <v>1454.808</v>
+        <v>673.66099999999994</v>
       </c>
       <c r="H33">
-        <v>9588.1710000000003</v>
+        <v>3063.6320000000001</v>
       </c>
       <c r="I33">
-        <v>191.381</v>
+        <v>97.247</v>
       </c>
       <c r="J33">
-        <v>2829.6570000000002</v>
+        <v>1152.7149999999999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>5.67</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>772.68600000000004</v>
+        <v>424.55599999999998</v>
       </c>
       <c r="O33">
-        <v>4645.8429999999998</v>
+        <v>1988.4169999999999</v>
       </c>
       <c r="P33">
-        <v>3209.6979999999999</v>
+        <v>1361.902</v>
       </c>
       <c r="Q33">
-        <v>20.181999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4942.3280000000004</v>
+        <v>1075.2149999999999</v>
       </c>
       <c r="U33">
-        <v>53.960999999999999</v>
+        <v>13.896000000000001</v>
       </c>
       <c r="V33">
-        <v>203.505</v>
+        <v>147.90700000000001</v>
       </c>
       <c r="W33">
-        <v>-30.395</v>
+        <v>-16.786000000000001</v>
       </c>
       <c r="X33">
-        <v>-120.032</v>
+        <v>-96.668999999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>180.221</v>
+        <v>66.325999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>94.379000000000005</v>
+        <v>25.260999999999999</v>
       </c>
       <c r="D34">
-        <v>956.1</v>
+        <v>412.07600000000002</v>
       </c>
       <c r="E34">
-        <v>510.8</v>
+        <v>206.59800000000001</v>
       </c>
       <c r="F34">
-        <v>228.643</v>
+        <v>104.137</v>
       </c>
       <c r="G34">
-        <v>1365.8</v>
+        <v>665.03099999999995</v>
       </c>
       <c r="H34">
-        <v>9551.4</v>
+        <v>3032.502</v>
       </c>
       <c r="I34">
-        <v>210.8</v>
+        <v>62.920999999999999</v>
       </c>
       <c r="J34">
-        <v>2730.4</v>
+        <v>1152.414</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>204.67699999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>786.7</v>
+        <v>348.63900000000001</v>
       </c>
       <c r="O34">
-        <v>4602</v>
+        <v>1965.242</v>
       </c>
       <c r="P34">
-        <v>3131.2</v>
+        <v>1359.6210000000001</v>
       </c>
       <c r="Q34">
-        <v>-9.0969999999999995</v>
+        <v>23.898</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>8714</v>
+        <v>4900</v>
       </c>
       <c r="T34">
-        <v>4949.3999999999996</v>
+        <v>1067.26</v>
       </c>
       <c r="U34">
-        <v>44.9</v>
+        <v>37.793999999999997</v>
       </c>
       <c r="V34">
-        <v>263.56200000000001</v>
+        <v>71.191000000000003</v>
       </c>
       <c r="W34">
-        <v>-30.21</v>
+        <v>-16.803999999999998</v>
       </c>
       <c r="X34">
-        <v>-163.08099999999999</v>
+        <v>-19.393000000000001</v>
       </c>
       <c r="Y34">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>94.379000000000005</v>
+        <v>25.260999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>42.9</v>
+        <v>-5.7640000000000002</v>
       </c>
       <c r="D35">
-        <v>878.3</v>
+        <v>329.84199999999998</v>
       </c>
       <c r="E35">
-        <v>550.60699999999997</v>
+        <v>206.785</v>
       </c>
       <c r="F35">
-        <v>144.1</v>
+        <v>48.534999999999997</v>
       </c>
       <c r="G35">
-        <v>1370.1110000000001</v>
+        <v>891.93899999999996</v>
       </c>
       <c r="H35">
-        <v>10048.406999999999</v>
+        <v>3253.0990000000002</v>
       </c>
       <c r="I35">
-        <v>184.84399999999999</v>
+        <v>77.028999999999996</v>
       </c>
       <c r="J35">
-        <v>2801.2280000000001</v>
+        <v>1152.107</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>184.434</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-20.242999999999999</v>
       </c>
       <c r="M35">
-        <v>-86</v>
+        <v>-1.097</v>
       </c>
       <c r="N35">
-        <v>757.63699999999994</v>
+        <v>347.65199999999999</v>
       </c>
       <c r="O35">
-        <v>5072.9110000000001</v>
+        <v>1968.912</v>
       </c>
       <c r="P35">
-        <v>3669.5059999999999</v>
+        <v>1338.4670000000001</v>
       </c>
       <c r="Q35">
-        <v>-7.5</v>
+        <v>184.209</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4975.4960000000001</v>
+        <v>1284.1869999999999</v>
       </c>
       <c r="U35">
-        <v>37.356999999999999</v>
+        <v>222.00299999999999</v>
       </c>
       <c r="V35">
-        <v>117.9</v>
+        <v>64.754000000000005</v>
       </c>
       <c r="W35">
-        <v>-30.4</v>
+        <v>-16.821000000000002</v>
       </c>
       <c r="X35">
-        <v>2.1</v>
+        <v>156.21299999999999</v>
       </c>
       <c r="Y35">
-        <v>453.99</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>42.9</v>
+        <v>-5.7640000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>189.4</v>
+        <v>38.862000000000002</v>
       </c>
       <c r="D36">
-        <v>1196.0999999999999</v>
+        <v>410.68900000000002</v>
       </c>
       <c r="E36">
-        <v>710.60500000000002</v>
+        <v>250.34</v>
       </c>
       <c r="F36">
-        <v>357.8</v>
+        <v>111.717</v>
       </c>
       <c r="G36">
-        <v>1533.1210000000001</v>
+        <v>802.12300000000005</v>
       </c>
       <c r="H36">
-        <v>10163.656999999999</v>
+        <v>3207.1930000000002</v>
       </c>
       <c r="I36">
-        <v>199.18100000000001</v>
+        <v>75.203000000000003</v>
       </c>
       <c r="J36">
-        <v>2732.018</v>
+        <v>1048.729</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>822.21600000000001</v>
+        <v>389.06400000000002</v>
       </c>
       <c r="O36">
-        <v>5066.3869999999997</v>
+        <v>1905.65</v>
       </c>
       <c r="P36">
-        <v>3617.3670000000002</v>
+        <v>1283.6500000000001</v>
       </c>
       <c r="Q36">
-        <v>16.2</v>
+        <v>-88.623000000000005</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5097.2700000000004</v>
+        <v>1301.5429999999999</v>
       </c>
       <c r="U36">
-        <v>53.594999999999999</v>
+        <v>133.38</v>
       </c>
       <c r="V36">
-        <v>215.8</v>
+        <v>51.904000000000003</v>
       </c>
       <c r="W36">
-        <v>-30.2</v>
+        <v>-18.113</v>
       </c>
       <c r="X36">
-        <v>-125.2</v>
+        <v>-54.789000000000001</v>
       </c>
       <c r="Y36">
-        <v>446.02699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>189.5</v>
+        <v>38.862000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>248.6</v>
+        <v>55.514000000000003</v>
       </c>
       <c r="D37">
-        <v>1323.2</v>
+        <v>428.27100000000002</v>
       </c>
       <c r="E37">
-        <v>763.87800000000004</v>
+        <v>241.52</v>
       </c>
       <c r="F37">
-        <v>421.4</v>
+        <v>117.748</v>
       </c>
       <c r="G37">
-        <v>1578.3979999999999</v>
+        <v>844.96600000000001</v>
       </c>
       <c r="H37">
-        <v>10223.485000000001</v>
+        <v>3232.681</v>
       </c>
       <c r="I37">
-        <v>238.559</v>
+        <v>61.741</v>
       </c>
       <c r="J37">
-        <v>2732.8150000000001</v>
+        <v>1038.873</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>688.98199999999997</v>
+        <v>394.78500000000003</v>
       </c>
       <c r="O37">
-        <v>4919.0469999999996</v>
+        <v>1880.7049999999999</v>
       </c>
       <c r="P37">
-        <v>3420.8389999999999</v>
+        <v>1265.06</v>
       </c>
       <c r="Q37">
-        <v>-4.5</v>
+        <v>60.454999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5304.4380000000001</v>
+        <v>1351.9760000000001</v>
       </c>
       <c r="U37">
-        <v>49.087000000000003</v>
+        <v>193.83500000000001</v>
       </c>
       <c r="V37">
-        <v>316.10000000000002</v>
+        <v>117.94</v>
       </c>
       <c r="W37">
-        <v>-34.6</v>
+        <v>-18.010999999999999</v>
       </c>
       <c r="X37">
-        <v>-245.8</v>
+        <v>-33.289000000000001</v>
       </c>
       <c r="Y37">
-        <v>443.17099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>248.6</v>
+        <v>55.514000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>131</v>
+        <v>-3.153</v>
       </c>
       <c r="D38">
-        <v>1024.7</v>
+        <v>327.83800000000002</v>
       </c>
       <c r="E38">
-        <v>559.70000000000005</v>
+        <v>160.35300000000001</v>
       </c>
       <c r="F38">
-        <v>260</v>
+        <v>59.731999999999999</v>
       </c>
       <c r="G38">
-        <v>1426.7</v>
+        <v>856.86</v>
       </c>
       <c r="H38">
-        <v>10131.6</v>
+        <v>3239.2829999999999</v>
       </c>
       <c r="I38">
-        <v>229.6</v>
+        <v>52.106999999999999</v>
       </c>
       <c r="J38">
-        <v>2433.6</v>
+        <v>1023.492</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>838.5</v>
+        <v>373.553</v>
       </c>
       <c r="O38">
-        <v>4778.3</v>
+        <v>1832.8720000000001</v>
       </c>
       <c r="P38">
-        <v>3268.9</v>
+        <v>1251.348</v>
       </c>
       <c r="Q38">
-        <v>-28.1</v>
+        <v>69.756</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>8846</v>
+        <v>4554</v>
       </c>
       <c r="T38">
-        <v>5353.3</v>
+        <v>1406.4110000000001</v>
       </c>
       <c r="U38">
-        <v>21</v>
+        <v>263.59100000000001</v>
       </c>
       <c r="V38">
-        <v>316.3</v>
+        <v>83.77</v>
       </c>
       <c r="W38">
-        <v>-34.6</v>
+        <v>-18.233000000000001</v>
       </c>
       <c r="X38">
-        <v>-235.2</v>
+        <v>24.324999999999999</v>
       </c>
       <c r="Y38">
-        <v>439.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>131</v>
+        <v>-3.153</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>25.9</v>
+        <v>-24.18</v>
       </c>
       <c r="D39">
-        <v>891</v>
+        <v>295.56099999999998</v>
       </c>
       <c r="E39">
-        <v>562.79999999999995</v>
+        <v>202.101</v>
       </c>
       <c r="F39">
-        <v>143.6</v>
+        <v>19.613</v>
       </c>
       <c r="G39">
-        <v>1833</v>
+        <v>854.71100000000001</v>
       </c>
       <c r="H39">
-        <v>10503.4</v>
+        <v>3244.902</v>
       </c>
       <c r="I39">
-        <v>202</v>
+        <v>67.281000000000006</v>
       </c>
       <c r="J39">
-        <v>2623.9</v>
+        <v>1029.606</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-127.8</v>
+        <v>-50.588999999999999</v>
       </c>
       <c r="N39">
-        <v>1075.5999999999999</v>
+        <v>395.346</v>
       </c>
       <c r="O39">
-        <v>5204</v>
+        <v>1872.0070000000001</v>
       </c>
       <c r="P39">
-        <v>3745.9</v>
+        <v>1251.4159999999999</v>
       </c>
       <c r="Q39">
-        <v>403</v>
+        <v>-42.548000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5299.4</v>
+        <v>1372.895</v>
       </c>
       <c r="U39">
-        <v>424</v>
+        <v>221.04300000000001</v>
       </c>
       <c r="V39">
-        <v>106.7</v>
+        <v>27.120999999999999</v>
       </c>
       <c r="W39">
-        <v>-34.799999999999997</v>
+        <v>-18.361999999999998</v>
       </c>
       <c r="X39">
-        <v>391.8</v>
+        <v>-18.21</v>
       </c>
       <c r="Y39">
-        <v>429.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>25.9</v>
+        <v>-24.18</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>217.6</v>
+        <v>54.4</v>
       </c>
       <c r="D40">
-        <v>1189.5</v>
+        <v>442.78399999999999</v>
       </c>
       <c r="E40">
-        <v>699.9</v>
+        <v>257.76100000000002</v>
       </c>
       <c r="F40">
-        <v>382.1</v>
+        <v>117.7</v>
       </c>
       <c r="G40">
-        <v>1587.1</v>
+        <v>708.46600000000001</v>
       </c>
       <c r="H40">
-        <v>10226.6</v>
+        <v>3096.3919999999998</v>
       </c>
       <c r="I40">
-        <v>197.2</v>
+        <v>80.238</v>
       </c>
       <c r="J40">
-        <v>2624.5</v>
+        <v>811.93799999999999</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3.403</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>595.29999999999995</v>
+        <v>414.62599999999998</v>
       </c>
       <c r="O40">
-        <v>4733</v>
+        <v>1679.595</v>
       </c>
       <c r="P40">
-        <v>3226.6</v>
+        <v>1059.4880000000001</v>
       </c>
       <c r="Q40">
-        <v>-353.9</v>
+        <v>-188.94800000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5493.6</v>
+        <v>1416.797</v>
       </c>
       <c r="U40">
-        <v>70.099999999999994</v>
+        <v>32.094999999999999</v>
       </c>
       <c r="V40">
-        <v>266.5</v>
+        <v>59.154000000000003</v>
       </c>
       <c r="W40">
-        <v>-34.6</v>
+        <v>-18.396999999999998</v>
       </c>
       <c r="X40">
-        <v>-545.1</v>
+        <v>-206.767</v>
       </c>
       <c r="Y40">
-        <v>420.7</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>217.6</v>
+        <v>54.399000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>294.5</v>
+        <v>51.988999999999997</v>
       </c>
       <c r="D41">
-        <v>1240.7</v>
+        <v>443.709</v>
       </c>
       <c r="E41">
-        <v>697</v>
+        <v>249.613</v>
       </c>
       <c r="F41">
-        <v>404.6</v>
+        <v>113.809</v>
       </c>
       <c r="G41">
-        <v>1652.8</v>
+        <v>732.11599999999999</v>
       </c>
       <c r="H41">
-        <v>10435.4</v>
+        <v>3115.7829999999999</v>
       </c>
       <c r="I41">
-        <v>210.7</v>
+        <v>76.992999999999995</v>
       </c>
       <c r="J41">
-        <v>2625.2</v>
+        <v>785.70600000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>506.2</v>
+        <v>426.83499999999998</v>
       </c>
       <c r="O41">
-        <v>4676.5</v>
+        <v>1658.5550000000001</v>
       </c>
       <c r="P41">
-        <v>3099.4</v>
+        <v>1031.1289999999999</v>
       </c>
       <c r="Q41">
-        <v>123.6</v>
+        <v>28.404</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5758.9</v>
+        <v>1457.2280000000001</v>
       </c>
       <c r="U41">
-        <v>116.6</v>
+        <v>60.499000000000002</v>
       </c>
       <c r="V41">
-        <v>310.8</v>
+        <v>116.336</v>
       </c>
       <c r="W41">
-        <v>-35.4</v>
+        <v>-18.398</v>
       </c>
       <c r="X41">
-        <v>-166.3</v>
+        <v>-47.119</v>
       </c>
       <c r="Y41">
-        <v>422.3</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>294.39999999999998</v>
+        <v>51.99</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>14.803000000000001</v>
+      </c>
+      <c r="D42">
+        <v>293.66300000000001</v>
+      </c>
+      <c r="E42">
+        <v>181.279</v>
+      </c>
+      <c r="F42">
+        <v>-59.997</v>
+      </c>
+      <c r="G42">
+        <v>696.21100000000001</v>
+      </c>
+      <c r="H42">
+        <v>3074.7429999999999</v>
+      </c>
+      <c r="I42">
+        <v>60.332999999999998</v>
+      </c>
+      <c r="J42">
+        <v>782.04499999999996</v>
+      </c>
+      <c r="K42">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>385.49299999999999</v>
+      </c>
+      <c r="O42">
+        <v>1606.4839999999999</v>
+      </c>
+      <c r="P42">
+        <v>1032.8820000000001</v>
+      </c>
+      <c r="Q42">
+        <v>9.8239999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4471</v>
+      </c>
+      <c r="T42">
+        <v>1468.259</v>
+      </c>
+      <c r="U42">
+        <v>70.322999999999993</v>
+      </c>
+      <c r="V42">
+        <v>67.197000000000003</v>
+      </c>
+      <c r="W42">
+        <v>-18.393000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-16.797999999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>14.965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-17.414000000000001</v>
+      </c>
+      <c r="D43">
+        <v>290.63600000000002</v>
+      </c>
+      <c r="E43">
+        <v>203.24199999999999</v>
+      </c>
+      <c r="F43">
+        <v>22.655000000000001</v>
+      </c>
+      <c r="G43">
+        <v>840.36099999999999</v>
+      </c>
+      <c r="H43">
+        <v>3208.6060000000002</v>
+      </c>
+      <c r="I43">
+        <v>74.914000000000001</v>
+      </c>
+      <c r="J43">
+        <v>1161.518</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>-2.1230000000000002</v>
+      </c>
+      <c r="M43">
+        <v>-162.20699999999999</v>
+      </c>
+      <c r="N43">
+        <v>158.762</v>
+      </c>
+      <c r="O43">
+        <v>1773.86</v>
+      </c>
+      <c r="P43">
+        <v>1168.6189999999999</v>
+      </c>
+      <c r="Q43">
+        <v>106.506</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1434.7460000000001</v>
+      </c>
+      <c r="U43">
+        <v>176.82900000000001</v>
+      </c>
+      <c r="V43">
+        <v>21.326000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="X43">
+        <v>113.721</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>-17.414000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>35.798999999999999</v>
+      </c>
+      <c r="D44">
+        <v>409.565</v>
+      </c>
+      <c r="E44">
+        <v>269.39</v>
+      </c>
+      <c r="F44">
+        <v>97.543000000000006</v>
+      </c>
+      <c r="G44">
+        <v>745.56799999999998</v>
+      </c>
+      <c r="H44">
+        <v>3148.9189999999999</v>
+      </c>
+      <c r="I44">
+        <v>85.415000000000006</v>
+      </c>
+      <c r="J44">
+        <v>978.95600000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>262.89800000000002</v>
+      </c>
+      <c r="O44">
+        <v>1698.32</v>
+      </c>
+      <c r="P44">
+        <v>1085.915</v>
+      </c>
+      <c r="Q44">
+        <v>-150.72999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1450.5989999999999</v>
+      </c>
+      <c r="U44">
+        <v>26.099</v>
+      </c>
+      <c r="V44">
+        <v>35.35</v>
+      </c>
+      <c r="W44">
+        <v>-18.413</v>
+      </c>
+      <c r="X44">
+        <v>-111.196</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>35.798999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>49.155999999999999</v>
+      </c>
+      <c r="D45">
+        <v>445.00299999999999</v>
+      </c>
+      <c r="E45">
+        <v>259.77300000000002</v>
+      </c>
+      <c r="F45">
+        <v>111.893</v>
+      </c>
+      <c r="G45">
+        <v>767.41600000000005</v>
+      </c>
+      <c r="H45">
+        <v>3158.558</v>
+      </c>
+      <c r="I45">
+        <v>86.322000000000003</v>
+      </c>
+      <c r="J45">
+        <v>1038.335</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>197.74600000000001</v>
+      </c>
+      <c r="O45">
+        <v>1673.0070000000001</v>
+      </c>
+      <c r="P45">
+        <v>1045.4849999999999</v>
+      </c>
+      <c r="Q45">
+        <v>30.741</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1485.5509999999999</v>
+      </c>
+      <c r="U45">
+        <v>56.84</v>
+      </c>
+      <c r="V45">
+        <v>123.194</v>
+      </c>
+      <c r="W45">
+        <v>-18.419</v>
+      </c>
+      <c r="X45">
+        <v>-58.607999999999997</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>49.155999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>14.837999999999999</v>
+      </c>
+      <c r="D46">
+        <v>374.67899999999997</v>
+      </c>
+      <c r="E46">
+        <v>192.316</v>
+      </c>
+      <c r="F46">
+        <v>69.88</v>
+      </c>
+      <c r="G46">
+        <v>657.85</v>
+      </c>
+      <c r="H46">
+        <v>3147.8220000000001</v>
+      </c>
+      <c r="I46">
+        <v>92.21</v>
+      </c>
+      <c r="J46">
+        <v>1052.902</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>173.71199999999999</v>
+      </c>
+      <c r="O46">
+        <v>1698.9580000000001</v>
+      </c>
+      <c r="P46">
+        <v>1060.0840000000001</v>
+      </c>
+      <c r="Q46">
+        <v>-30.818000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4993</v>
+      </c>
+      <c r="T46">
+        <v>1448.864</v>
+      </c>
+      <c r="U46">
+        <v>26.021999999999998</v>
+      </c>
+      <c r="V46">
+        <v>79.224000000000004</v>
+      </c>
+      <c r="W46">
+        <v>-18.416</v>
+      </c>
+      <c r="X46">
+        <v>-8.3879999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>14.837999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-36.731999999999999</v>
+      </c>
+      <c r="D47">
+        <v>350.53199999999998</v>
+      </c>
+      <c r="E47">
+        <v>212.05199999999999</v>
+      </c>
+      <c r="F47">
+        <v>23.826000000000001</v>
+      </c>
+      <c r="G47">
+        <v>701.94399999999996</v>
+      </c>
+      <c r="H47">
+        <v>3182.1170000000002</v>
+      </c>
+      <c r="I47">
+        <v>100.08199999999999</v>
+      </c>
+      <c r="J47">
+        <v>1127.1780000000001</v>
+      </c>
+      <c r="K47">
+        <v>1.929</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-76.48</v>
+      </c>
+      <c r="N47">
+        <v>185.37100000000001</v>
+      </c>
+      <c r="O47">
+        <v>1783.835</v>
+      </c>
+      <c r="P47">
+        <v>1136.7570000000001</v>
+      </c>
+      <c r="Q47">
+        <v>18.928000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1398.2819999999999</v>
+      </c>
+      <c r="U47">
+        <v>44.95</v>
+      </c>
+      <c r="V47">
+        <v>-4.319</v>
+      </c>
+      <c r="W47">
+        <v>-18.420000000000002</v>
+      </c>
+      <c r="X47">
+        <v>58.634999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>-36.731999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>36.75</v>
+      </c>
+      <c r="D48">
+        <v>488.90499999999997</v>
+      </c>
+      <c r="E48">
+        <v>275.416</v>
+      </c>
+      <c r="F48">
+        <v>102.56399999999999</v>
+      </c>
+      <c r="G48">
+        <v>760.33100000000002</v>
+      </c>
+      <c r="H48">
+        <v>3226.5329999999999</v>
+      </c>
+      <c r="I48">
+        <v>113.30800000000001</v>
+      </c>
+      <c r="J48">
+        <v>1137.076</v>
+      </c>
+      <c r="K48">
+        <v>3.3519999999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>199.066</v>
+      </c>
+      <c r="O48">
+        <v>1809.729</v>
+      </c>
+      <c r="P48">
+        <v>1147.5989999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-3.5569999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1416.8040000000001</v>
+      </c>
+      <c r="U48">
+        <v>41.393000000000001</v>
+      </c>
+      <c r="V48">
+        <v>31.988</v>
+      </c>
+      <c r="W48">
+        <v>-18.440999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-8.5419999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>62.921999999999997</v>
+      </c>
+      <c r="D49">
+        <v>537.50699999999995</v>
+      </c>
+      <c r="E49">
+        <v>296.947</v>
+      </c>
+      <c r="F49">
+        <v>124.02200000000001</v>
+      </c>
+      <c r="G49">
+        <v>785.10699999999997</v>
+      </c>
+      <c r="H49">
+        <v>3243.2040000000002</v>
+      </c>
+      <c r="I49">
+        <v>99.628</v>
+      </c>
+      <c r="J49">
+        <v>1092.117</v>
+      </c>
+      <c r="K49">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>217.10900000000001</v>
+      </c>
+      <c r="O49">
+        <v>1773.183</v>
+      </c>
+      <c r="P49">
+        <v>1098.8900000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-5.9720000000000004</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1470.021</v>
+      </c>
+      <c r="U49">
+        <v>35.420999999999999</v>
+      </c>
+      <c r="V49">
+        <v>94.375</v>
+      </c>
+      <c r="W49">
+        <v>-18.440999999999999</v>
+      </c>
+      <c r="X49">
+        <v>-64.536000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>62.921999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>21.533999999999999</v>
+      </c>
+      <c r="D50">
+        <v>456.01299999999998</v>
+      </c>
+      <c r="E50">
+        <v>220.50800000000001</v>
+      </c>
+      <c r="F50">
+        <v>76.721999999999994</v>
+      </c>
+      <c r="G50">
+        <v>700.40099999999995</v>
+      </c>
+      <c r="H50">
+        <v>3160.9259999999999</v>
+      </c>
+      <c r="I50">
+        <v>83.537000000000006</v>
+      </c>
+      <c r="J50">
+        <v>1042.183</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>173.33500000000001</v>
+      </c>
+      <c r="O50">
+        <v>1710.627</v>
+      </c>
+      <c r="P50">
+        <v>1047.8589999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-10.026999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>4948</v>
+      </c>
+      <c r="T50">
+        <v>1450.299</v>
+      </c>
+      <c r="U50">
+        <v>25.393999999999998</v>
+      </c>
+      <c r="V50">
+        <v>100.645</v>
+      </c>
+      <c r="W50">
+        <v>-18.465</v>
+      </c>
+      <c r="X50">
+        <v>-65.664000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>21.533999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-27.838999999999999</v>
+      </c>
+      <c r="D51">
+        <v>344.05900000000003</v>
+      </c>
+      <c r="E51">
+        <v>202.15</v>
+      </c>
+      <c r="F51">
+        <v>12.821</v>
+      </c>
+      <c r="G51">
+        <v>715.73299999999995</v>
+      </c>
+      <c r="H51">
+        <v>3154.7750000000001</v>
+      </c>
+      <c r="I51">
+        <v>77.08</v>
+      </c>
+      <c r="J51">
+        <v>1072.8499999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-29.4</v>
+      </c>
+      <c r="N51">
+        <v>168.69</v>
+      </c>
+      <c r="O51">
+        <v>1744.7180000000001</v>
+      </c>
+      <c r="P51">
+        <v>1078.527</v>
+      </c>
+      <c r="Q51">
+        <v>11.866</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1410.057</v>
+      </c>
+      <c r="U51">
+        <v>37.26</v>
+      </c>
+      <c r="V51">
+        <v>18.574999999999999</v>
+      </c>
+      <c r="W51">
+        <v>-18.503</v>
+      </c>
+      <c r="X51">
+        <v>16.22</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-27.838999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>41.307000000000002</v>
+      </c>
+      <c r="D52">
+        <v>507.33199999999999</v>
+      </c>
+      <c r="E52">
+        <v>287.52100000000002</v>
+      </c>
+      <c r="F52">
+        <v>106.996</v>
+      </c>
+      <c r="G52">
+        <v>806.48500000000001</v>
+      </c>
+      <c r="H52">
+        <v>3231.1190000000001</v>
+      </c>
+      <c r="I52">
+        <v>99.96</v>
+      </c>
+      <c r="J52">
+        <v>1087.1500000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>192.53299999999999</v>
+      </c>
+      <c r="O52">
+        <v>1790.452</v>
+      </c>
+      <c r="P52">
+        <v>1093.319</v>
+      </c>
+      <c r="Q52">
+        <v>6.452</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1440.6669999999999</v>
+      </c>
+      <c r="U52">
+        <v>43.712000000000003</v>
+      </c>
+      <c r="V52">
+        <v>29.896999999999998</v>
+      </c>
+      <c r="W52">
+        <v>-18.565000000000001</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>41.308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>71.835999999999999</v>
+      </c>
+      <c r="D53">
+        <v>600.45699999999999</v>
+      </c>
+      <c r="E53">
+        <v>331.03</v>
+      </c>
+      <c r="F53">
+        <v>143.108</v>
+      </c>
+      <c r="G53">
+        <v>845.66899999999998</v>
+      </c>
+      <c r="H53">
+        <v>3337.105</v>
+      </c>
+      <c r="I53">
+        <v>111.26600000000001</v>
+      </c>
+      <c r="J53">
+        <v>1107.192</v>
+      </c>
+      <c r="K53">
+        <v>10.436999999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>226.43199999999999</v>
+      </c>
+      <c r="O53">
+        <v>1838.222</v>
+      </c>
+      <c r="P53">
+        <v>1123.798</v>
+      </c>
+      <c r="Q53">
+        <v>13.529</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1498.883</v>
+      </c>
+      <c r="U53">
+        <v>57.241</v>
+      </c>
+      <c r="V53">
+        <v>117.173</v>
+      </c>
+      <c r="W53">
+        <v>-18.558</v>
+      </c>
+      <c r="X53">
+        <v>11.95</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>71.835999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>36.033000000000001</v>
+      </c>
+      <c r="D54">
+        <v>491.37</v>
+      </c>
+      <c r="E54">
+        <v>242.447</v>
+      </c>
+      <c r="F54">
+        <v>101.032</v>
+      </c>
+      <c r="G54">
+        <v>755.36599999999999</v>
+      </c>
+      <c r="H54">
+        <v>3259.826</v>
+      </c>
+      <c r="I54">
+        <v>103.6</v>
+      </c>
+      <c r="J54">
+        <v>1018.518</v>
+      </c>
+      <c r="K54">
+        <v>2.556</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>210.54900000000001</v>
+      </c>
+      <c r="O54">
+        <v>1684.9069999999999</v>
+      </c>
+      <c r="P54">
+        <v>1033.4770000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-14.804</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5036</v>
+      </c>
+      <c r="T54">
+        <v>1574.9190000000001</v>
+      </c>
+      <c r="U54">
+        <v>42.436999999999998</v>
+      </c>
+      <c r="V54">
+        <v>143.30600000000001</v>
+      </c>
+      <c r="W54">
+        <v>-18.571000000000002</v>
+      </c>
+      <c r="X54">
+        <v>-110.529</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>36.033000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-21.617999999999999</v>
+      </c>
+      <c r="D55">
+        <v>379.678</v>
+      </c>
+      <c r="E55">
+        <v>242.58699999999999</v>
+      </c>
+      <c r="F55">
+        <v>25.835000000000001</v>
+      </c>
+      <c r="G55">
+        <v>758.21400000000006</v>
+      </c>
+      <c r="H55">
+        <v>3255.2570000000001</v>
+      </c>
+      <c r="I55">
+        <v>98.775000000000006</v>
+      </c>
+      <c r="J55">
+        <v>1055.5409999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-2.556</v>
+      </c>
+      <c r="M55">
+        <v>-23.65</v>
+      </c>
+      <c r="N55">
+        <v>193.75800000000001</v>
+      </c>
+      <c r="O55">
+        <v>1710.9639999999999</v>
+      </c>
+      <c r="P55">
+        <v>1067.944</v>
+      </c>
+      <c r="Q55">
+        <v>-6.6360000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1544.2929999999999</v>
+      </c>
+      <c r="U55">
+        <v>35.801000000000002</v>
+      </c>
+      <c r="V55">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-18.603999999999999</v>
+      </c>
+      <c r="X55">
+        <v>22.314</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>-21.617999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>59.521999999999998</v>
+      </c>
+      <c r="D56">
+        <v>601.93700000000001</v>
+      </c>
+      <c r="E56">
+        <v>343.78399999999999</v>
+      </c>
+      <c r="F56">
+        <v>135.602</v>
+      </c>
+      <c r="G56">
+        <v>876.70100000000002</v>
+      </c>
+      <c r="H56">
+        <v>3356.0430000000001</v>
+      </c>
+      <c r="I56">
+        <v>139.44200000000001</v>
+      </c>
+      <c r="J56">
+        <v>1072.3969999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>244.72499999999999</v>
+      </c>
+      <c r="O56">
+        <v>1789.0440000000001</v>
+      </c>
+      <c r="P56">
+        <v>1084.8009999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-1.472</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1566.999</v>
+      </c>
+      <c r="U56">
+        <v>34.329000000000001</v>
+      </c>
+      <c r="V56">
+        <v>63.750999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-18.649999999999999</v>
+      </c>
+      <c r="X56">
+        <v>-18.614000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>59.521000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>53.741999999999997</v>
+      </c>
+      <c r="D57">
+        <v>917.94200000000001</v>
+      </c>
+      <c r="E57">
+        <v>523.928</v>
+      </c>
+      <c r="F57">
+        <v>206.46600000000001</v>
+      </c>
+      <c r="G57">
+        <v>1212.798</v>
+      </c>
+      <c r="H57">
+        <v>7338.8580000000002</v>
+      </c>
+      <c r="I57">
+        <v>230.20599999999999</v>
+      </c>
+      <c r="J57">
+        <v>1603.944</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>436.99799999999999</v>
+      </c>
+      <c r="O57">
+        <v>2963.2449999999999</v>
+      </c>
+      <c r="P57">
+        <v>1618.2750000000001</v>
+      </c>
+      <c r="Q57">
+        <v>39.268000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4375.6130000000003</v>
+      </c>
+      <c r="U57">
+        <v>73.596999999999994</v>
+      </c>
+      <c r="V57">
+        <v>131.26499999999999</v>
+      </c>
+      <c r="W57">
+        <v>-27.009</v>
+      </c>
+      <c r="X57">
+        <v>-209.31899999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>53.743000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>63.954999999999998</v>
+      </c>
+      <c r="D58">
+        <v>779.53800000000001</v>
+      </c>
+      <c r="E58">
+        <v>413.93900000000002</v>
+      </c>
+      <c r="F58">
+        <v>166.55699999999999</v>
+      </c>
+      <c r="G58">
+        <v>1044.1780000000001</v>
+      </c>
+      <c r="H58">
+        <v>7219.7539999999999</v>
+      </c>
+      <c r="I58">
+        <v>202.476</v>
+      </c>
+      <c r="J58">
+        <v>1571.059</v>
+      </c>
+      <c r="K58">
+        <v>0.183</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>396.64800000000002</v>
+      </c>
+      <c r="O58">
+        <v>2867.0059999999999</v>
+      </c>
+      <c r="P58">
+        <v>1585.578</v>
+      </c>
+      <c r="Q58">
+        <v>35.054000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>7193</v>
+      </c>
+      <c r="T58">
+        <v>4352.7479999999996</v>
+      </c>
+      <c r="U58">
+        <v>108.651</v>
+      </c>
+      <c r="V58">
+        <v>180.03</v>
+      </c>
+      <c r="W58">
+        <v>-27.041</v>
+      </c>
+      <c r="X58">
+        <v>-60.5</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>63.954999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>6.1260000000000003</v>
+      </c>
+      <c r="D59">
+        <v>631.87599999999998</v>
+      </c>
+      <c r="E59">
+        <v>381.38900000000001</v>
+      </c>
+      <c r="F59">
+        <v>74.260999999999996</v>
+      </c>
+      <c r="G59">
+        <v>1281.729</v>
+      </c>
+      <c r="H59">
+        <v>7417.6459999999997</v>
+      </c>
+      <c r="I59">
+        <v>184.066</v>
+      </c>
+      <c r="J59">
+        <v>1566.617</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-0.183</v>
+      </c>
+      <c r="M59">
+        <v>-5.5330000000000004</v>
+      </c>
+      <c r="N59">
+        <v>343.55500000000001</v>
+      </c>
+      <c r="O59">
+        <v>3075.4630000000002</v>
+      </c>
+      <c r="P59">
+        <v>1581.0229999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-52.284999999999997</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4342.183</v>
+      </c>
+      <c r="U59">
+        <v>56.366</v>
+      </c>
+      <c r="V59">
+        <v>35.125</v>
+      </c>
+      <c r="W59">
+        <v>-28.353999999999999</v>
+      </c>
+      <c r="X59">
+        <v>-24.018999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>6.1260000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>81.938999999999993</v>
+      </c>
+      <c r="D60">
+        <v>850.24900000000002</v>
+      </c>
+      <c r="E60">
+        <v>497.46800000000002</v>
+      </c>
+      <c r="F60">
+        <v>200.15299999999999</v>
+      </c>
+      <c r="G60">
+        <v>1765.249</v>
+      </c>
+      <c r="H60">
+        <v>7499.6540000000005</v>
+      </c>
+      <c r="I60">
+        <v>201.23500000000001</v>
+      </c>
+      <c r="J60">
+        <v>1642.0350000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>363.834</v>
+      </c>
+      <c r="O60">
+        <v>3189.221</v>
+      </c>
+      <c r="P60">
+        <v>1658.001</v>
+      </c>
+      <c r="Q60">
+        <v>-12.196999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4310.433</v>
+      </c>
+      <c r="U60">
+        <v>44.168999999999997</v>
+      </c>
+      <c r="V60">
+        <v>91.944000000000003</v>
+      </c>
+      <c r="W60">
+        <v>-25.931000000000001</v>
+      </c>
+      <c r="X60">
+        <v>-32.609000000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>81.938000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>117.542</v>
+      </c>
+      <c r="D61">
+        <v>1005.218</v>
+      </c>
+      <c r="E61">
+        <v>577.42399999999998</v>
+      </c>
+      <c r="F61">
+        <v>262.505</v>
+      </c>
+      <c r="G61">
+        <v>1641.971</v>
+      </c>
+      <c r="H61">
+        <v>7438.4480000000003</v>
+      </c>
+      <c r="I61">
+        <v>226.83699999999999</v>
+      </c>
+      <c r="J61">
+        <v>1557.616</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>575.39200000000005</v>
+      </c>
+      <c r="O61">
+        <v>3185.8679999999999</v>
+      </c>
+      <c r="P61">
+        <v>1705.152</v>
+      </c>
+      <c r="Q61">
+        <v>392.26</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4252.58</v>
+      </c>
+      <c r="U61">
+        <v>436.42899999999997</v>
+      </c>
+      <c r="V61">
+        <v>192.51</v>
+      </c>
+      <c r="W61">
+        <v>-26.934000000000001</v>
+      </c>
+      <c r="X61">
+        <v>-135.72399999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>117.544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>83.185000000000002</v>
+      </c>
+      <c r="D62">
+        <v>780.774</v>
+      </c>
+      <c r="E62">
+        <v>401.61099999999999</v>
+      </c>
+      <c r="F62">
+        <v>184.84899999999999</v>
+      </c>
+      <c r="G62">
+        <v>1081.635</v>
+      </c>
+      <c r="H62">
+        <v>6957.6109999999999</v>
+      </c>
+      <c r="I62">
+        <v>164.71799999999999</v>
+      </c>
+      <c r="J62">
+        <v>1550.0609999999999</v>
+      </c>
+      <c r="K62">
+        <v>10.234999999999999</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>366.65800000000002</v>
+      </c>
+      <c r="O62">
+        <v>2897.4340000000002</v>
+      </c>
+      <c r="P62">
+        <v>1579.009</v>
+      </c>
+      <c r="Q62">
+        <v>-268.02</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>7300</v>
+      </c>
+      <c r="T62">
+        <v>4060.1770000000001</v>
+      </c>
+      <c r="U62">
+        <v>168.40899999999999</v>
+      </c>
+      <c r="V62">
+        <v>253.572</v>
+      </c>
+      <c r="W62">
+        <v>-26.242999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-409.58699999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>83.185000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>44.994</v>
+      </c>
+      <c r="D63">
+        <v>733.96</v>
+      </c>
+      <c r="E63">
+        <v>448.048</v>
+      </c>
+      <c r="F63">
+        <v>145.25</v>
+      </c>
+      <c r="G63">
+        <v>998.31500000000005</v>
+      </c>
+      <c r="H63">
+        <v>7058.2870000000003</v>
+      </c>
+      <c r="I63">
+        <v>174.398</v>
+      </c>
+      <c r="J63">
+        <v>1575.327</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-10.234999999999999</v>
+      </c>
+      <c r="M63">
+        <v>-27.17</v>
+      </c>
+      <c r="N63">
+        <v>492.13099999999997</v>
+      </c>
+      <c r="O63">
+        <v>3112.6509999999998</v>
+      </c>
+      <c r="P63">
+        <v>1752.7570000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-141.167</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3945.636</v>
+      </c>
+      <c r="U63">
+        <v>27.242000000000001</v>
+      </c>
+      <c r="V63">
+        <v>68.311999999999998</v>
+      </c>
+      <c r="W63">
+        <v>-25.847000000000001</v>
+      </c>
+      <c r="X63">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>44.994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>122.053</v>
+      </c>
+      <c r="D64">
+        <v>915.43600000000004</v>
+      </c>
+      <c r="E64">
+        <v>534.45899999999995</v>
+      </c>
+      <c r="F64">
+        <v>247.43100000000001</v>
+      </c>
+      <c r="G64">
+        <v>1121.9290000000001</v>
+      </c>
+      <c r="H64">
+        <v>7233.3050000000003</v>
+      </c>
+      <c r="I64">
+        <v>197.733</v>
+      </c>
+      <c r="J64">
+        <v>1541.0619999999999</v>
+      </c>
+      <c r="K64">
+        <v>7.1429999999999998</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>601.60400000000004</v>
+      </c>
+      <c r="O64">
+        <v>3216.8049999999998</v>
+      </c>
+      <c r="P64">
+        <v>1786.36</v>
+      </c>
+      <c r="Q64">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4016.5</v>
+      </c>
+      <c r="U64">
+        <v>28.596</v>
+      </c>
+      <c r="V64">
+        <v>141.53200000000001</v>
+      </c>
+      <c r="W64">
+        <v>-25.62</v>
+      </c>
+      <c r="X64">
+        <v>-24.905999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>122.05200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>159.47900000000001</v>
+      </c>
+      <c r="D65">
+        <v>1038.3440000000001</v>
+      </c>
+      <c r="E65">
+        <v>566.42499999999995</v>
+      </c>
+      <c r="F65">
+        <v>293.30700000000002</v>
+      </c>
+      <c r="G65">
+        <v>1191.5250000000001</v>
+      </c>
+      <c r="H65">
+        <v>7373.201</v>
+      </c>
+      <c r="I65">
+        <v>192.738</v>
+      </c>
+      <c r="J65">
+        <v>1536.81</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>604.90899999999999</v>
+      </c>
+      <c r="O65">
+        <v>3214.8029999999999</v>
+      </c>
+      <c r="P65">
+        <v>1764.835</v>
+      </c>
+      <c r="Q65">
+        <v>32.088000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4158.3980000000001</v>
+      </c>
+      <c r="U65">
+        <v>60.683999999999997</v>
+      </c>
+      <c r="V65">
+        <v>211.869</v>
+      </c>
+      <c r="W65">
+        <v>-26.827999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-50.712000000000003</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>159.47900000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>98.86</v>
+      </c>
+      <c r="D66">
+        <v>889.02700000000004</v>
+      </c>
+      <c r="E66">
+        <v>450.24200000000002</v>
+      </c>
+      <c r="F66">
+        <v>225.75</v>
+      </c>
+      <c r="G66">
+        <v>1086.385</v>
+      </c>
+      <c r="H66">
+        <v>7300.9049999999997</v>
+      </c>
+      <c r="I66">
+        <v>178.59800000000001</v>
+      </c>
+      <c r="J66">
+        <v>1506.153</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>546.58799999999997</v>
+      </c>
+      <c r="O66">
+        <v>3158.3150000000001</v>
+      </c>
+      <c r="P66">
+        <v>1686.1890000000001</v>
+      </c>
+      <c r="Q66">
+        <v>-10.646000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>8111</v>
+      </c>
+      <c r="T66">
+        <v>4142.59</v>
+      </c>
+      <c r="U66">
+        <v>50.037999999999997</v>
+      </c>
+      <c r="V66">
+        <v>267.52</v>
+      </c>
+      <c r="W66">
+        <v>-26.741</v>
+      </c>
+      <c r="X66">
+        <v>-177.56100000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>98.86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>42.334000000000003</v>
+      </c>
+      <c r="D67">
+        <v>792.31600000000003</v>
+      </c>
+      <c r="E67">
+        <v>479.21499999999997</v>
+      </c>
+      <c r="F67">
+        <v>147.69900000000001</v>
+      </c>
+      <c r="G67">
+        <v>1123.242</v>
+      </c>
+      <c r="H67">
+        <v>7393.7910000000002</v>
+      </c>
+      <c r="I67">
+        <v>188.399</v>
+      </c>
+      <c r="J67">
+        <v>1556.2460000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-45.773000000000003</v>
+      </c>
+      <c r="N67">
+        <v>631.55799999999999</v>
+      </c>
+      <c r="O67">
+        <v>3317.837</v>
+      </c>
+      <c r="P67">
+        <v>1846.2940000000001</v>
+      </c>
+      <c r="Q67">
+        <v>5.38</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4075.9540000000002</v>
+      </c>
+      <c r="U67">
+        <v>55.417999999999999</v>
+      </c>
+      <c r="V67">
+        <v>73.864999999999995</v>
+      </c>
+      <c r="W67">
+        <v>-26.56</v>
+      </c>
+      <c r="X67">
+        <v>32.89</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>42.334000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>142.279</v>
+      </c>
+      <c r="D68">
+        <v>996.84299999999996</v>
+      </c>
+      <c r="E68">
+        <v>570.61800000000005</v>
+      </c>
+      <c r="F68">
+        <v>278.74799999999999</v>
+      </c>
+      <c r="G68">
+        <v>1244.297</v>
+      </c>
+      <c r="H68">
+        <v>7515.86</v>
+      </c>
+      <c r="I68">
+        <v>187.227</v>
+      </c>
+      <c r="J68">
+        <v>1641.944</v>
+      </c>
+      <c r="K68">
+        <v>3.794</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>534.32500000000005</v>
+      </c>
+      <c r="O68">
+        <v>3315.3290000000002</v>
+      </c>
+      <c r="P68">
+        <v>1785.7750000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-18.696000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4200.5309999999999</v>
+      </c>
+      <c r="U68">
+        <v>36.722000000000001</v>
+      </c>
+      <c r="V68">
+        <v>155.458</v>
+      </c>
+      <c r="W68">
+        <v>-26.574999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-89.605000000000004</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>142.279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>151.54599999999999</v>
+      </c>
+      <c r="D69">
+        <v>1022.487</v>
+      </c>
+      <c r="E69">
+        <v>582.53200000000004</v>
+      </c>
+      <c r="F69">
+        <v>279.60300000000001</v>
+      </c>
+      <c r="G69">
+        <v>1277.989</v>
+      </c>
+      <c r="H69">
+        <v>7566.7849999999999</v>
+      </c>
+      <c r="I69">
+        <v>163.59700000000001</v>
+      </c>
+      <c r="J69">
+        <v>1642.502</v>
+      </c>
+      <c r="K69">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>468.50299999999999</v>
+      </c>
+      <c r="O69">
+        <v>3232.8029999999999</v>
+      </c>
+      <c r="P69">
+        <v>1723.587</v>
+      </c>
+      <c r="Q69">
+        <v>-1.5029999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4333.982</v>
+      </c>
+      <c r="U69">
+        <v>35.219000000000001</v>
+      </c>
+      <c r="V69">
+        <v>188.79900000000001</v>
+      </c>
+      <c r="W69">
+        <v>-27.826000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-91.671000000000006</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>151.54599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>377.18299999999999</v>
+      </c>
+      <c r="D70">
+        <v>911.83199999999999</v>
+      </c>
+      <c r="E70">
+        <v>477.68299999999999</v>
+      </c>
+      <c r="F70">
+        <v>259.61599999999999</v>
+      </c>
+      <c r="G70">
+        <v>2631.16</v>
+      </c>
+      <c r="H70">
+        <v>8992.5110000000004</v>
+      </c>
+      <c r="I70">
+        <v>183.63800000000001</v>
+      </c>
+      <c r="J70">
+        <v>2727.2939999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>694.21600000000001</v>
+      </c>
+      <c r="O70">
+        <v>4310.0339999999997</v>
+      </c>
+      <c r="P70">
+        <v>3027.203</v>
+      </c>
+      <c r="Q70">
+        <v>1411.145</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>8406</v>
+      </c>
+      <c r="T70">
+        <v>4682.4769999999999</v>
+      </c>
+      <c r="U70">
+        <v>1446.364</v>
+      </c>
+      <c r="V70">
+        <v>239.476</v>
+      </c>
+      <c r="W70">
+        <v>-27.890999999999998</v>
+      </c>
+      <c r="X70">
+        <v>1273.3130000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>377.18299999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>10.023</v>
+      </c>
+      <c r="D71">
+        <v>753.30499999999995</v>
+      </c>
+      <c r="E71">
+        <v>466.46499999999997</v>
+      </c>
+      <c r="F71">
+        <v>111.685</v>
+      </c>
+      <c r="G71">
+        <v>2601.9299999999998</v>
+      </c>
+      <c r="H71">
+        <v>8948.0499999999993</v>
+      </c>
+      <c r="I71">
+        <v>162.328</v>
+      </c>
+      <c r="J71">
+        <v>2728.1019999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.84199999999999997</v>
+      </c>
+      <c r="N71">
+        <v>650.97900000000004</v>
+      </c>
+      <c r="O71">
+        <v>4268.22</v>
+      </c>
+      <c r="P71">
+        <v>3028.1080000000002</v>
+      </c>
+      <c r="Q71">
+        <v>-23.991</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4679.83</v>
+      </c>
+      <c r="U71">
+        <v>1422.373</v>
+      </c>
+      <c r="V71">
+        <v>105.012</v>
+      </c>
+      <c r="W71">
+        <v>-27.885000000000002</v>
+      </c>
+      <c r="X71">
+        <v>-35.371000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>10.023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>185.37700000000001</v>
+      </c>
+      <c r="D72">
+        <v>1128.777</v>
+      </c>
+      <c r="E72">
+        <v>675.57</v>
+      </c>
+      <c r="F72">
+        <v>326.51400000000001</v>
+      </c>
+      <c r="G72">
+        <v>1457.153</v>
+      </c>
+      <c r="H72">
+        <v>9596.7520000000004</v>
+      </c>
+      <c r="I72">
+        <v>188.761</v>
+      </c>
+      <c r="J72">
+        <v>2898.8760000000002</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>709.13300000000004</v>
+      </c>
+      <c r="O72">
+        <v>4741.2820000000002</v>
+      </c>
+      <c r="P72">
+        <v>3218.922</v>
+      </c>
+      <c r="Q72">
+        <v>-1388.5940000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4855.47</v>
+      </c>
+      <c r="U72">
+        <v>33.779000000000003</v>
+      </c>
+      <c r="V72">
+        <v>133.02099999999999</v>
+      </c>
+      <c r="W72">
+        <v>-27.91</v>
+      </c>
+      <c r="X72">
+        <v>160.084</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>185.37700000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>180.221</v>
+      </c>
+      <c r="D73">
+        <v>1142.2180000000001</v>
+      </c>
+      <c r="E73">
+        <v>644.83500000000004</v>
+      </c>
+      <c r="F73">
+        <v>322.45699999999999</v>
+      </c>
+      <c r="G73">
+        <v>1454.808</v>
+      </c>
+      <c r="H73">
+        <v>9588.1710000000003</v>
+      </c>
+      <c r="I73">
+        <v>191.381</v>
+      </c>
+      <c r="J73">
+        <v>2829.6570000000002</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>772.68600000000004</v>
+      </c>
+      <c r="O73">
+        <v>4645.8429999999998</v>
+      </c>
+      <c r="P73">
+        <v>3209.6979999999999</v>
+      </c>
+      <c r="Q73">
+        <v>20.181999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4942.3280000000004</v>
+      </c>
+      <c r="U73">
+        <v>53.960999999999999</v>
+      </c>
+      <c r="V73">
+        <v>203.505</v>
+      </c>
+      <c r="W73">
+        <v>-30.395</v>
+      </c>
+      <c r="X73">
+        <v>-120.032</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>180.221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>94.379000000000005</v>
+      </c>
+      <c r="D74">
+        <v>956.1</v>
+      </c>
+      <c r="E74">
+        <v>510.8</v>
+      </c>
+      <c r="F74">
+        <v>228.643</v>
+      </c>
+      <c r="G74">
+        <v>1365.8</v>
+      </c>
+      <c r="H74">
+        <v>9551.4</v>
+      </c>
+      <c r="I74">
+        <v>210.8</v>
+      </c>
+      <c r="J74">
+        <v>2730.4</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>786.7</v>
+      </c>
+      <c r="O74">
+        <v>4602</v>
+      </c>
+      <c r="P74">
+        <v>3131.2</v>
+      </c>
+      <c r="Q74">
+        <v>-9.0969999999999995</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>8714</v>
+      </c>
+      <c r="T74">
+        <v>4949.3999999999996</v>
+      </c>
+      <c r="U74">
+        <v>44.9</v>
+      </c>
+      <c r="V74">
+        <v>263.56200000000001</v>
+      </c>
+      <c r="W74">
+        <v>-30.21</v>
+      </c>
+      <c r="X74">
+        <v>-163.08099999999999</v>
+      </c>
+      <c r="Y74">
+        <v>7.6</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>94.379000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>42.9</v>
+      </c>
+      <c r="D75">
+        <v>878.3</v>
+      </c>
+      <c r="E75">
+        <v>550.60699999999997</v>
+      </c>
+      <c r="F75">
+        <v>144.1</v>
+      </c>
+      <c r="G75">
+        <v>1370.1110000000001</v>
+      </c>
+      <c r="H75">
+        <v>10048.406999999999</v>
+      </c>
+      <c r="I75">
+        <v>184.84399999999999</v>
+      </c>
+      <c r="J75">
+        <v>2801.2280000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-86</v>
+      </c>
+      <c r="N75">
+        <v>757.63699999999994</v>
+      </c>
+      <c r="O75">
+        <v>5072.9110000000001</v>
+      </c>
+      <c r="P75">
+        <v>3669.5059999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-7.5</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4975.4960000000001</v>
+      </c>
+      <c r="U75">
+        <v>37.356999999999999</v>
+      </c>
+      <c r="V75">
+        <v>117.9</v>
+      </c>
+      <c r="W75">
+        <v>-30.4</v>
+      </c>
+      <c r="X75">
+        <v>2.1</v>
+      </c>
+      <c r="Y75">
+        <v>453.99</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>189.4</v>
+      </c>
+      <c r="D76">
+        <v>1196.0999999999999</v>
+      </c>
+      <c r="E76">
+        <v>710.60500000000002</v>
+      </c>
+      <c r="F76">
+        <v>357.8</v>
+      </c>
+      <c r="G76">
+        <v>1533.1210000000001</v>
+      </c>
+      <c r="H76">
+        <v>10163.656999999999</v>
+      </c>
+      <c r="I76">
+        <v>199.18100000000001</v>
+      </c>
+      <c r="J76">
+        <v>2732.018</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>822.21600000000001</v>
+      </c>
+      <c r="O76">
+        <v>5066.3869999999997</v>
+      </c>
+      <c r="P76">
+        <v>3617.3670000000002</v>
+      </c>
+      <c r="Q76">
+        <v>16.2</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5097.2700000000004</v>
+      </c>
+      <c r="U76">
+        <v>53.594999999999999</v>
+      </c>
+      <c r="V76">
+        <v>215.8</v>
+      </c>
+      <c r="W76">
+        <v>-30.2</v>
+      </c>
+      <c r="X76">
+        <v>-125.2</v>
+      </c>
+      <c r="Y76">
+        <v>446.02699999999999</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>248.6</v>
+      </c>
+      <c r="D77">
+        <v>1323.2</v>
+      </c>
+      <c r="E77">
+        <v>763.87800000000004</v>
+      </c>
+      <c r="F77">
+        <v>421.4</v>
+      </c>
+      <c r="G77">
+        <v>1578.3979999999999</v>
+      </c>
+      <c r="H77">
+        <v>10223.485000000001</v>
+      </c>
+      <c r="I77">
+        <v>238.559</v>
+      </c>
+      <c r="J77">
+        <v>2732.8150000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>688.98199999999997</v>
+      </c>
+      <c r="O77">
+        <v>4919.0469999999996</v>
+      </c>
+      <c r="P77">
+        <v>3420.8389999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-4.5</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5304.4380000000001</v>
+      </c>
+      <c r="U77">
+        <v>49.087000000000003</v>
+      </c>
+      <c r="V77">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="W77">
+        <v>-34.6</v>
+      </c>
+      <c r="X77">
+        <v>-245.8</v>
+      </c>
+      <c r="Y77">
+        <v>443.17099999999999</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>248.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>131</v>
+      </c>
+      <c r="D78">
+        <v>1024.7</v>
+      </c>
+      <c r="E78">
+        <v>559.70000000000005</v>
+      </c>
+      <c r="F78">
+        <v>260</v>
+      </c>
+      <c r="G78">
+        <v>1426.7</v>
+      </c>
+      <c r="H78">
+        <v>10131.6</v>
+      </c>
+      <c r="I78">
+        <v>229.6</v>
+      </c>
+      <c r="J78">
+        <v>2433.6</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>838.5</v>
+      </c>
+      <c r="O78">
+        <v>4778.3</v>
+      </c>
+      <c r="P78">
+        <v>3268.9</v>
+      </c>
+      <c r="Q78">
+        <v>-28.1</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>8846</v>
+      </c>
+      <c r="T78">
+        <v>5353.3</v>
+      </c>
+      <c r="U78">
+        <v>21</v>
+      </c>
+      <c r="V78">
+        <v>316.3</v>
+      </c>
+      <c r="W78">
+        <v>-34.6</v>
+      </c>
+      <c r="X78">
+        <v>-235.2</v>
+      </c>
+      <c r="Y78">
+        <v>439.8</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>25.9</v>
+      </c>
+      <c r="D79">
+        <v>891</v>
+      </c>
+      <c r="E79">
+        <v>562.79999999999995</v>
+      </c>
+      <c r="F79">
+        <v>143.6</v>
+      </c>
+      <c r="G79">
+        <v>1833</v>
+      </c>
+      <c r="H79">
+        <v>10503.4</v>
+      </c>
+      <c r="I79">
+        <v>202</v>
+      </c>
+      <c r="J79">
+        <v>2623.9</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-127.8</v>
+      </c>
+      <c r="N79">
+        <v>1075.5999999999999</v>
+      </c>
+      <c r="O79">
+        <v>5204</v>
+      </c>
+      <c r="P79">
+        <v>3745.9</v>
+      </c>
+      <c r="Q79">
+        <v>403</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5299.4</v>
+      </c>
+      <c r="U79">
+        <v>424</v>
+      </c>
+      <c r="V79">
+        <v>106.7</v>
+      </c>
+      <c r="W79">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="X79">
+        <v>391.8</v>
+      </c>
+      <c r="Y79">
+        <v>429.2</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>217.6</v>
+      </c>
+      <c r="D80">
+        <v>1189.5</v>
+      </c>
+      <c r="E80">
+        <v>699.9</v>
+      </c>
+      <c r="F80">
+        <v>382.1</v>
+      </c>
+      <c r="G80">
+        <v>1587.1</v>
+      </c>
+      <c r="H80">
+        <v>10226.6</v>
+      </c>
+      <c r="I80">
+        <v>197.2</v>
+      </c>
+      <c r="J80">
+        <v>2624.5</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>595.29999999999995</v>
+      </c>
+      <c r="O80">
+        <v>4733</v>
+      </c>
+      <c r="P80">
+        <v>3226.6</v>
+      </c>
+      <c r="Q80">
+        <v>-353.9</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5493.6</v>
+      </c>
+      <c r="U80">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="V80">
+        <v>266.5</v>
+      </c>
+      <c r="W80">
+        <v>-34.6</v>
+      </c>
+      <c r="X80">
+        <v>-545.1</v>
+      </c>
+      <c r="Y80">
+        <v>420.7</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>294.5</v>
+      </c>
+      <c r="D81">
+        <v>1240.7</v>
+      </c>
+      <c r="E81">
+        <v>697</v>
+      </c>
+      <c r="F81">
+        <v>404.6</v>
+      </c>
+      <c r="G81">
+        <v>1652.8</v>
+      </c>
+      <c r="H81">
+        <v>10435.4</v>
+      </c>
+      <c r="I81">
+        <v>210.7</v>
+      </c>
+      <c r="J81">
+        <v>2625.2</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>506.2</v>
+      </c>
+      <c r="O81">
+        <v>4676.5</v>
+      </c>
+      <c r="P81">
+        <v>3099.4</v>
+      </c>
+      <c r="Q81">
+        <v>123.6</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5758.9</v>
+      </c>
+      <c r="U81">
+        <v>116.6</v>
+      </c>
+      <c r="V81">
+        <v>310.8</v>
+      </c>
+      <c r="W81">
+        <v>-35.4</v>
+      </c>
+      <c r="X81">
+        <v>-166.3</v>
+      </c>
+      <c r="Y81">
+        <v>422.3</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>294.39999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>183</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1110.9000000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>566.70000000000005</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>326.2</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1668.3</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>10580.8</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>207.8</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2625.8</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>499.3</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4687.5</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3109.3</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>110.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>8700</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5893.3</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>207.3</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>366.1</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-35.5</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-37.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>431.6</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>183</v>
       </c>
     </row>
